--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>236200</v>
+        <v>233300</v>
       </c>
       <c r="E8" s="3">
-        <v>341800</v>
+        <v>337600</v>
       </c>
       <c r="F8" s="3">
-        <v>275600</v>
+        <v>272200</v>
       </c>
       <c r="G8" s="3">
-        <v>185200</v>
+        <v>182900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>94000</v>
+        <v>92800</v>
       </c>
       <c r="E9" s="3">
-        <v>139000</v>
+        <v>137300</v>
       </c>
       <c r="F9" s="3">
-        <v>129200</v>
+        <v>127600</v>
       </c>
       <c r="G9" s="3">
-        <v>81200</v>
+        <v>80200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>142200</v>
+        <v>140400</v>
       </c>
       <c r="E10" s="3">
-        <v>202800</v>
+        <v>200300</v>
       </c>
       <c r="F10" s="3">
-        <v>146400</v>
+        <v>144600</v>
       </c>
       <c r="G10" s="3">
-        <v>104000</v>
+        <v>102700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -907,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="F15" s="3">
         <v>6400</v>
       </c>
       <c r="G15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>210400</v>
+        <v>207700</v>
       </c>
       <c r="E17" s="3">
-        <v>328200</v>
+        <v>324200</v>
       </c>
       <c r="F17" s="3">
-        <v>262400</v>
+        <v>259100</v>
       </c>
       <c r="G17" s="3">
-        <v>216900</v>
+        <v>214200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="E18" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="F18" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="G18" s="3">
-        <v>-31800</v>
+        <v>-31400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1014,13 +1014,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="E20" s="3">
         <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
         <v>-700</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="E21" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="F21" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="G21" s="3">
-        <v>-27200</v>
+        <v>-26800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1101,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="E23" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="F23" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G23" s="3">
-        <v>-32900</v>
+        <v>-32500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1133,13 +1133,13 @@
         <v>5600</v>
       </c>
       <c r="E24" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
       </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1188,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E26" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F26" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G26" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E27" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G27" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1362,13 +1362,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E32" s="3">
         <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
         <v>700</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E33" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G33" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E35" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G35" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>728300</v>
+        <v>719300</v>
       </c>
       <c r="E41" s="3">
-        <v>115500</v>
+        <v>114100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="E42" s="3">
-        <v>27100</v>
+        <v>26700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>114000</v>
+        <v>112600</v>
       </c>
       <c r="E43" s="3">
-        <v>115600</v>
+        <v>114100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1625,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>157400</v>
+        <v>155500</v>
       </c>
       <c r="E44" s="3">
-        <v>159100</v>
+        <v>157100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1654,10 +1654,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43400</v>
+        <v>42900</v>
       </c>
       <c r="E45" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1087900</v>
+        <v>1074500</v>
       </c>
       <c r="E46" s="3">
-        <v>424700</v>
+        <v>419400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1741,10 +1741,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>209500</v>
+        <v>206900</v>
       </c>
       <c r="E48" s="3">
-        <v>197400</v>
+        <v>195000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>63200</v>
+        <v>62500</v>
       </c>
       <c r="E49" s="3">
-        <v>62800</v>
+        <v>62000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1364600</v>
+        <v>1347700</v>
       </c>
       <c r="E54" s="3">
-        <v>688700</v>
+        <v>680200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54300</v>
+        <v>53600</v>
       </c>
       <c r="E57" s="3">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="E58" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129200</v>
+        <v>127600</v>
       </c>
       <c r="E59" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204900</v>
+        <v>202400</v>
       </c>
       <c r="E60" s="3">
-        <v>213100</v>
+        <v>210500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2086,10 +2086,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>174200</v>
+        <v>172100</v>
       </c>
       <c r="E61" s="3">
-        <v>169900</v>
+        <v>167800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2115,10 +2115,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E62" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>393200</v>
+        <v>388300</v>
       </c>
       <c r="E66" s="3">
-        <v>397800</v>
+        <v>392800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>937800</v>
+        <v>926200</v>
       </c>
       <c r="E72" s="3">
-        <v>105300</v>
+        <v>104000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>971400</v>
+        <v>959300</v>
       </c>
       <c r="E76" s="3">
-        <v>291000</v>
+        <v>287400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E81" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F81" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G81" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2639,16 +2639,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E83" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="F83" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G83" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2813,16 +2813,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41400</v>
+        <v>-40900</v>
       </c>
       <c r="E89" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="F89" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="G89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2855,16 +2855,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2942,16 +2942,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="F94" s="3">
-        <v>-12300</v>
+        <v>-12100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3100,16 +3100,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>665600</v>
+        <v>657400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="F100" s="3">
         <v>-2500</v>
       </c>
       <c r="G100" s="3">
-        <v>137700</v>
+        <v>136000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3158,16 +3158,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>612800</v>
+        <v>605100</v>
       </c>
       <c r="E102" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="F102" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="G102" s="3">
-        <v>127800</v>
+        <v>126300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,25 +711,28 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>233300</v>
+        <v>407900</v>
       </c>
       <c r="E8" s="3">
-        <v>337600</v>
+        <v>217400</v>
       </c>
       <c r="F8" s="3">
-        <v>272200</v>
+        <v>314600</v>
       </c>
       <c r="G8" s="3">
-        <v>182900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>253700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>170400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -740,25 +743,28 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>92800</v>
+        <v>165600</v>
       </c>
       <c r="E9" s="3">
-        <v>137300</v>
+        <v>86500</v>
       </c>
       <c r="F9" s="3">
-        <v>127600</v>
+        <v>127900</v>
       </c>
       <c r="G9" s="3">
-        <v>80200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>118900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>74700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -769,25 +775,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>140400</v>
+        <v>242400</v>
       </c>
       <c r="E10" s="3">
-        <v>200300</v>
+        <v>130900</v>
       </c>
       <c r="F10" s="3">
-        <v>144600</v>
+        <v>186700</v>
       </c>
       <c r="G10" s="3">
-        <v>102700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>134700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>95700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,25 +917,28 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11100</v>
+      <c r="D15" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>6400</v>
+        <v>10400</v>
       </c>
       <c r="G15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -927,8 +949,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>207700</v>
+        <v>561100</v>
       </c>
       <c r="E17" s="3">
-        <v>324200</v>
+        <v>193600</v>
       </c>
       <c r="F17" s="3">
-        <v>259100</v>
+        <v>302100</v>
       </c>
       <c r="G17" s="3">
-        <v>214200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>241500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>199700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -966,25 +992,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25500</v>
+        <v>-153200</v>
       </c>
       <c r="E18" s="3">
-        <v>13400</v>
+        <v>23800</v>
       </c>
       <c r="F18" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="G18" s="3">
-        <v>-31400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-29200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1040,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6000</v>
+        <v>-17200</v>
       </c>
       <c r="E20" s="3">
-        <v>2400</v>
+        <v>-5600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,25 +1070,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>27700</v>
+        <v>-150600</v>
       </c>
       <c r="E21" s="3">
-        <v>28300</v>
+        <v>25800</v>
       </c>
       <c r="F21" s="3">
-        <v>14600</v>
+        <v>26400</v>
       </c>
       <c r="G21" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>13600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-25000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1066,25 +1102,28 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1600</v>
+      <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1095,25 +1134,28 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19500</v>
+        <v>-172300</v>
       </c>
       <c r="E23" s="3">
-        <v>14200</v>
+        <v>18100</v>
       </c>
       <c r="F23" s="3">
-        <v>6400</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-30300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1124,25 +1166,28 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5600</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>10200</v>
+        <v>5200</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>9500</v>
       </c>
       <c r="G24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13900</v>
+        <v>-173500</v>
       </c>
       <c r="E26" s="3">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="F26" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="G26" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-33000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1211,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13900</v>
+        <v>-173500</v>
       </c>
       <c r="E27" s="3">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="F27" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="G27" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-33000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1422,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6000</v>
+        <v>17200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2400</v>
+        <v>5600</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>-2200</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13900</v>
+        <v>-173500</v>
       </c>
       <c r="E33" s="3">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="F33" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="G33" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-33000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13900</v>
+        <v>-173500</v>
       </c>
       <c r="E35" s="3">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="F35" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="G35" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-33000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1472,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1617,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>719300</v>
+        <v>651200</v>
       </c>
       <c r="E41" s="3">
-        <v>114100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>670300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>106300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,19 +1647,22 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44300</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
-        <v>26700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>41300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>24900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1590,19 +1679,22 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112600</v>
+        <v>125800</v>
       </c>
       <c r="E43" s="3">
-        <v>114100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>104900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>106400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,19 +1711,22 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>155500</v>
+        <v>133800</v>
       </c>
       <c r="E44" s="3">
-        <v>157100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>144900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>146400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1648,19 +1743,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42900</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>39900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,19 +1775,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1074500</v>
+        <v>961800</v>
       </c>
       <c r="E46" s="3">
-        <v>419400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>1001300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>390800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,19 +1839,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>206900</v>
+        <v>211700</v>
       </c>
       <c r="E48" s="3">
-        <v>195000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>192800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>181700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,19 +1871,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62500</v>
+        <v>57300</v>
       </c>
       <c r="E49" s="3">
-        <v>62000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>58200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>57800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,19 +1967,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2031,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1347700</v>
+        <v>1233000</v>
       </c>
       <c r="E54" s="3">
-        <v>680200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1255900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>633900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,19 +2093,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53600</v>
+        <v>45800</v>
       </c>
       <c r="E57" s="3">
-        <v>80700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>50000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>75200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,19 +2123,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21200</v>
+        <v>13600</v>
       </c>
       <c r="E58" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2022,19 +2155,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>127600</v>
+        <v>145000</v>
       </c>
       <c r="E59" s="3">
-        <v>118100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>118900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>110100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2187,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>202400</v>
+        <v>204400</v>
       </c>
       <c r="E60" s="3">
-        <v>210500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>188600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>196200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,19 +2219,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>172100</v>
+        <v>166700</v>
       </c>
       <c r="E61" s="3">
-        <v>167800</v>
+        <v>160400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>156400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2109,19 +2251,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13900</v>
+        <v>15900</v>
       </c>
       <c r="E62" s="3">
-        <v>14500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>13500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2379,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>388300</v>
+        <v>387000</v>
       </c>
       <c r="E66" s="3">
-        <v>392800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>361900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>366100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,19 +2553,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>926200</v>
+        <v>93700</v>
       </c>
       <c r="E72" s="3">
-        <v>104000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>863100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>96900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2681,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>959300</v>
+        <v>845900</v>
       </c>
       <c r="E76" s="3">
-        <v>287400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>894000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>267800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13900</v>
+        <v>-173500</v>
       </c>
       <c r="E81" s="3">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="F81" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="G81" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-33000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,25 +2830,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8300</v>
+        <v>19700</v>
       </c>
       <c r="E83" s="3">
-        <v>12500</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
-        <v>7700</v>
+        <v>11600</v>
       </c>
       <c r="G83" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40900</v>
+        <v>-12800</v>
       </c>
       <c r="E89" s="3">
-        <v>31800</v>
+        <v>-38100</v>
       </c>
       <c r="F89" s="3">
-        <v>-13800</v>
+        <v>29700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-12900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,25 +3068,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9100</v>
+        <v>-21100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-8500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,25 +3162,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11300</v>
+        <v>-26600</v>
       </c>
       <c r="E94" s="3">
         <v>-10500</v>
       </c>
       <c r="F94" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-11300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-7300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,25 +3336,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>657400</v>
+        <v>599100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5300</v>
+        <v>612600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2500</v>
+        <v>-4900</v>
       </c>
       <c r="G100" s="3">
-        <v>136000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-2300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>126800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3123,25 +3368,28 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-14800</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-1000</v>
+        <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3152,25 +3400,28 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>605100</v>
+        <v>545000</v>
       </c>
       <c r="E102" s="3">
-        <v>17100</v>
+        <v>563900</v>
       </c>
       <c r="F102" s="3">
-        <v>-29500</v>
+        <v>15900</v>
       </c>
       <c r="G102" s="3">
-        <v>126300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>117700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,88 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>407900</v>
+        <v>302700</v>
       </c>
       <c r="E8" s="3">
-        <v>217400</v>
+        <v>244600</v>
       </c>
       <c r="F8" s="3">
-        <v>314600</v>
+        <v>424500</v>
       </c>
       <c r="G8" s="3">
-        <v>253700</v>
+        <v>226200</v>
       </c>
       <c r="H8" s="3">
-        <v>170400</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>327400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>264000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>177300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -746,31 +754,37 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>165600</v>
+        <v>135800</v>
       </c>
       <c r="E9" s="3">
-        <v>86500</v>
+        <v>117900</v>
       </c>
       <c r="F9" s="3">
-        <v>127900</v>
+        <v>172300</v>
       </c>
       <c r="G9" s="3">
-        <v>118900</v>
+        <v>90000</v>
       </c>
       <c r="H9" s="3">
-        <v>74700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>133100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>123800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>77700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -778,31 +792,37 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>242400</v>
+        <v>166900</v>
       </c>
       <c r="E10" s="3">
-        <v>130900</v>
+        <v>126700</v>
       </c>
       <c r="F10" s="3">
-        <v>186700</v>
+        <v>252200</v>
       </c>
       <c r="G10" s="3">
-        <v>134700</v>
+        <v>136200</v>
       </c>
       <c r="H10" s="3">
-        <v>95700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>194300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>140200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>99600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -810,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +850,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +922,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,31 +960,37 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>18200</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5900</v>
+        <v>19000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -952,8 +998,14 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,31 +1015,33 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>561100</v>
+        <v>275300</v>
       </c>
       <c r="E17" s="3">
-        <v>193600</v>
+        <v>241100</v>
       </c>
       <c r="F17" s="3">
-        <v>302100</v>
+        <v>583900</v>
       </c>
       <c r="G17" s="3">
-        <v>241500</v>
+        <v>201500</v>
       </c>
       <c r="H17" s="3">
-        <v>199700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>314400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>251300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>207800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -995,31 +1049,37 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-153200</v>
+        <v>27400</v>
       </c>
       <c r="E18" s="3">
-        <v>23800</v>
+        <v>3500</v>
       </c>
       <c r="F18" s="3">
-        <v>12500</v>
+        <v>-159400</v>
       </c>
       <c r="G18" s="3">
-        <v>12200</v>
+        <v>24700</v>
       </c>
       <c r="H18" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>13000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-30400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1087,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,31 +1107,33 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17200</v>
+        <v>33000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5600</v>
+        <v>16600</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>-17900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1073,31 +1141,37 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-150600</v>
+        <v>71400</v>
       </c>
       <c r="E21" s="3">
-        <v>25800</v>
+        <v>29800</v>
       </c>
       <c r="F21" s="3">
-        <v>26400</v>
+        <v>-156800</v>
       </c>
       <c r="G21" s="3">
-        <v>13600</v>
+        <v>26900</v>
       </c>
       <c r="H21" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-26000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1105,31 +1179,37 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2000</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1137,31 +1217,37 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-172300</v>
+        <v>60400</v>
       </c>
       <c r="E23" s="3">
-        <v>18100</v>
+        <v>20100</v>
       </c>
       <c r="F23" s="3">
-        <v>13200</v>
+        <v>-179300</v>
       </c>
       <c r="G23" s="3">
-        <v>6000</v>
+        <v>18900</v>
       </c>
       <c r="H23" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-31600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1169,31 +1255,37 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>9400</v>
       </c>
       <c r="E24" s="3">
         <v>5200</v>
       </c>
       <c r="F24" s="3">
-        <v>9500</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2700</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1293,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,31 +1331,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-173500</v>
+        <v>51000</v>
       </c>
       <c r="E26" s="3">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="F26" s="3">
-        <v>3700</v>
+        <v>-180500</v>
       </c>
       <c r="G26" s="3">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="H26" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-34300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1265,31 +1369,37 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-173500</v>
+        <v>51000</v>
       </c>
       <c r="E27" s="3">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="F27" s="3">
-        <v>3700</v>
+        <v>-180500</v>
       </c>
       <c r="G27" s="3">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="H27" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-34300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1407,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,31 +1559,37 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17200</v>
+        <v>-33000</v>
       </c>
       <c r="E32" s="3">
-        <v>5600</v>
+        <v>-16600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>17900</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H32" s="3">
-        <v>600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-2300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1457,31 +1597,37 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-173500</v>
+        <v>51000</v>
       </c>
       <c r="E33" s="3">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="F33" s="3">
-        <v>3700</v>
+        <v>-180500</v>
       </c>
       <c r="G33" s="3">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="H33" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-34300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1635,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,31 +1673,37 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-173500</v>
+        <v>51000</v>
       </c>
       <c r="E35" s="3">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="F35" s="3">
-        <v>3700</v>
+        <v>-180500</v>
       </c>
       <c r="G35" s="3">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="H35" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-34300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1553,45 +1711,57 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,25 +1790,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>651200</v>
+        <v>578700</v>
       </c>
       <c r="E41" s="3">
-        <v>670300</v>
+        <v>649800</v>
       </c>
       <c r="F41" s="3">
-        <v>106300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>677700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>697500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>110700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1650,25 +1824,31 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30000</v>
+        <v>61000</v>
       </c>
       <c r="E42" s="3">
-        <v>41300</v>
+        <v>38300</v>
       </c>
       <c r="F42" s="3">
-        <v>24900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>31200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1682,25 +1862,31 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125800</v>
+        <v>164500</v>
       </c>
       <c r="E43" s="3">
-        <v>104900</v>
+        <v>135500</v>
       </c>
       <c r="F43" s="3">
-        <v>106400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>131000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>109200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>110700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1714,25 +1900,31 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>133800</v>
+        <v>224900</v>
       </c>
       <c r="E44" s="3">
-        <v>144900</v>
+        <v>168600</v>
       </c>
       <c r="F44" s="3">
-        <v>146400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>139200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>150800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>152400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1746,25 +1938,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>71100</v>
       </c>
       <c r="E45" s="3">
-        <v>39900</v>
+        <v>61000</v>
       </c>
       <c r="F45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>41600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,25 +1976,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>961800</v>
+        <v>1100100</v>
       </c>
       <c r="E46" s="3">
-        <v>1001300</v>
+        <v>1053200</v>
       </c>
       <c r="F46" s="3">
-        <v>390800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>1000900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>406700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1810,8 +2014,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,25 +2052,31 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>211700</v>
+        <v>247600</v>
       </c>
       <c r="E48" s="3">
-        <v>192800</v>
+        <v>235500</v>
       </c>
       <c r="F48" s="3">
-        <v>181700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>220300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>189100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1874,25 +2090,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57300</v>
+        <v>59100</v>
       </c>
       <c r="E49" s="3">
-        <v>58200</v>
+        <v>59800</v>
       </c>
       <c r="F49" s="3">
-        <v>57800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>59600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>60600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>60100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2128,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,25 +2204,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>17100</v>
       </c>
       <c r="E52" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="F52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,25 +2280,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1233000</v>
+        <v>1423900</v>
       </c>
       <c r="E54" s="3">
-        <v>1255900</v>
+        <v>1352600</v>
       </c>
       <c r="F54" s="3">
-        <v>633900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1283100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>659600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2318,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,25 +2354,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="E57" s="3">
-        <v>50000</v>
+        <v>44300</v>
       </c>
       <c r="F57" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>47700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>52000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>78200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2126,25 +2388,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13600</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>19700</v>
+        <v>57800</v>
       </c>
       <c r="F58" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>11400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2158,25 +2426,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145000</v>
+        <v>171500</v>
       </c>
       <c r="E59" s="3">
-        <v>118900</v>
+        <v>144500</v>
       </c>
       <c r="F59" s="3">
-        <v>110100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>150900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>123700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>114600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2190,25 +2464,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204400</v>
+        <v>244900</v>
       </c>
       <c r="E60" s="3">
-        <v>188600</v>
+        <v>246600</v>
       </c>
       <c r="F60" s="3">
-        <v>196200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>212700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>196300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>204100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2222,25 +2502,31 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>166700</v>
+        <v>183000</v>
       </c>
       <c r="E61" s="3">
-        <v>160400</v>
+        <v>175500</v>
       </c>
       <c r="F61" s="3">
-        <v>156400</v>
+        <v>173500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>166900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>162800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2254,25 +2540,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15900</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>12900</v>
+        <v>19100</v>
       </c>
       <c r="F62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>14100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,25 +2692,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>387000</v>
+        <v>452800</v>
       </c>
       <c r="E66" s="3">
-        <v>361900</v>
+        <v>441200</v>
       </c>
       <c r="F66" s="3">
-        <v>366100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>402800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>376600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>381000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2730,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,25 +2898,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93700</v>
+        <v>963600</v>
       </c>
       <c r="E72" s="3">
-        <v>863100</v>
+        <v>903500</v>
       </c>
       <c r="F72" s="3">
-        <v>96900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>97500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>898200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>100900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2936,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,25 +3050,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>845900</v>
+        <v>971100</v>
       </c>
       <c r="E76" s="3">
-        <v>894000</v>
+        <v>911400</v>
       </c>
       <c r="F76" s="3">
-        <v>267800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>880300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>930400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>278700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +3088,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,68 +3126,80 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-173500</v>
+        <v>51000</v>
       </c>
       <c r="E81" s="3">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="F81" s="3">
-        <v>3700</v>
+        <v>-180500</v>
       </c>
       <c r="G81" s="3">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="H81" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-34300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3207,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,31 +3227,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19700</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>9700</v>
       </c>
       <c r="F83" s="3">
-        <v>11600</v>
+        <v>20500</v>
       </c>
       <c r="G83" s="3">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="H83" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3261,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,31 +3451,37 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12800</v>
+        <v>-65500</v>
       </c>
       <c r="E89" s="3">
-        <v>-38100</v>
+        <v>-65600</v>
       </c>
       <c r="F89" s="3">
-        <v>29700</v>
+        <v>-13300</v>
       </c>
       <c r="G89" s="3">
-        <v>-12900</v>
+        <v>-39700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>30900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3489,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,31 +3509,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21100</v>
+        <v>-9900</v>
       </c>
       <c r="E91" s="3">
-        <v>-8500</v>
+        <v>-14600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6900</v>
+        <v>-8900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3543,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,31 +3619,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26600</v>
+        <v>-11400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10500</v>
+        <v>-16900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9800</v>
+        <v>-27700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11300</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-10200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-7600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,31 +3825,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>599100</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>612600</v>
+        <v>11600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4900</v>
+        <v>623400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2300</v>
+        <v>637500</v>
       </c>
       <c r="H100" s="3">
-        <v>126800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-5100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>131900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3371,31 +3863,37 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14800</v>
+        <v>31100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>-15400</v>
       </c>
       <c r="G101" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3403,36 +3901,48 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>545000</v>
+        <v>-44400</v>
       </c>
       <c r="E102" s="3">
-        <v>563900</v>
+        <v>-54700</v>
       </c>
       <c r="F102" s="3">
-        <v>15900</v>
+        <v>567100</v>
       </c>
       <c r="G102" s="3">
-        <v>-27400</v>
+        <v>586900</v>
       </c>
       <c r="H102" s="3">
-        <v>117700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>16600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>122400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -734,7 +734,7 @@
         <v>244600</v>
       </c>
       <c r="F8" s="3">
-        <v>424500</v>
+        <v>424600</v>
       </c>
       <c r="G8" s="3">
         <v>226200</v>
@@ -746,7 +746,7 @@
         <v>264000</v>
       </c>
       <c r="J8" s="3">
-        <v>177300</v>
+        <v>177400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -804,13 +804,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>166900</v>
+        <v>167000</v>
       </c>
       <c r="E10" s="3">
         <v>126700</v>
       </c>
       <c r="F10" s="3">
-        <v>252200</v>
+        <v>252300</v>
       </c>
       <c r="G10" s="3">
         <v>136200</v>
@@ -1029,7 +1029,7 @@
         <v>241100</v>
       </c>
       <c r="F17" s="3">
-        <v>583900</v>
+        <v>584000</v>
       </c>
       <c r="G17" s="3">
         <v>201500</v>
@@ -1235,7 +1235,7 @@
         <v>20100</v>
       </c>
       <c r="F23" s="3">
-        <v>-179300</v>
+        <v>-179400</v>
       </c>
       <c r="G23" s="3">
         <v>18900</v>
@@ -1349,7 +1349,7 @@
         <v>14900</v>
       </c>
       <c r="F26" s="3">
-        <v>-180500</v>
+        <v>-180600</v>
       </c>
       <c r="G26" s="3">
         <v>13500</v>
@@ -1387,7 +1387,7 @@
         <v>14900</v>
       </c>
       <c r="F27" s="3">
-        <v>-180500</v>
+        <v>-180600</v>
       </c>
       <c r="G27" s="3">
         <v>13500</v>
@@ -1615,7 +1615,7 @@
         <v>14900</v>
       </c>
       <c r="F33" s="3">
-        <v>-180500</v>
+        <v>-180600</v>
       </c>
       <c r="G33" s="3">
         <v>13500</v>
@@ -1691,7 +1691,7 @@
         <v>14900</v>
       </c>
       <c r="F35" s="3">
-        <v>-180500</v>
+        <v>-180600</v>
       </c>
       <c r="G35" s="3">
         <v>13500</v>
@@ -1801,13 +1801,13 @@
         <v>578700</v>
       </c>
       <c r="E41" s="3">
-        <v>649800</v>
+        <v>649900</v>
       </c>
       <c r="F41" s="3">
-        <v>677700</v>
+        <v>677800</v>
       </c>
       <c r="G41" s="3">
-        <v>697500</v>
+        <v>697600</v>
       </c>
       <c r="H41" s="3">
         <v>110700</v>
@@ -1988,19 +1988,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100100</v>
+        <v>1100200</v>
       </c>
       <c r="E46" s="3">
-        <v>1053200</v>
+        <v>1053300</v>
       </c>
       <c r="F46" s="3">
-        <v>1000900</v>
+        <v>1001000</v>
       </c>
       <c r="G46" s="3">
-        <v>1042000</v>
+        <v>1042100</v>
       </c>
       <c r="H46" s="3">
-        <v>406700</v>
+        <v>406800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2067,7 +2067,7 @@
         <v>247600</v>
       </c>
       <c r="E48" s="3">
-        <v>235500</v>
+        <v>235600</v>
       </c>
       <c r="F48" s="3">
         <v>220300</v>
@@ -2292,19 +2292,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1423900</v>
+        <v>1424100</v>
       </c>
       <c r="E54" s="3">
-        <v>1352600</v>
+        <v>1352700</v>
       </c>
       <c r="F54" s="3">
-        <v>1283100</v>
+        <v>1283200</v>
       </c>
       <c r="G54" s="3">
-        <v>1307000</v>
+        <v>1307100</v>
       </c>
       <c r="H54" s="3">
-        <v>659600</v>
+        <v>659700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2476,19 +2476,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>244900</v>
+        <v>245000</v>
       </c>
       <c r="E60" s="3">
         <v>246600</v>
       </c>
       <c r="F60" s="3">
-        <v>212700</v>
+        <v>212800</v>
       </c>
       <c r="G60" s="3">
         <v>196300</v>
       </c>
       <c r="H60" s="3">
-        <v>204100</v>
+        <v>204200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2713,7 +2713,7 @@
         <v>402800</v>
       </c>
       <c r="G66" s="3">
-        <v>376600</v>
+        <v>376700</v>
       </c>
       <c r="H66" s="3">
         <v>381000</v>
@@ -2910,16 +2910,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>963600</v>
+        <v>963700</v>
       </c>
       <c r="E72" s="3">
-        <v>903500</v>
+        <v>903600</v>
       </c>
       <c r="F72" s="3">
         <v>97500</v>
       </c>
       <c r="G72" s="3">
-        <v>898200</v>
+        <v>898300</v>
       </c>
       <c r="H72" s="3">
         <v>100900</v>
@@ -3062,16 +3062,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>971100</v>
+        <v>971200</v>
       </c>
       <c r="E76" s="3">
-        <v>911400</v>
+        <v>911500</v>
       </c>
       <c r="F76" s="3">
-        <v>880300</v>
+        <v>880400</v>
       </c>
       <c r="G76" s="3">
-        <v>930400</v>
+        <v>930500</v>
       </c>
       <c r="H76" s="3">
         <v>278700</v>
@@ -3187,7 +3187,7 @@
         <v>14900</v>
       </c>
       <c r="F81" s="3">
-        <v>-180500</v>
+        <v>-180600</v>
       </c>
       <c r="G81" s="3">
         <v>13500</v>
@@ -3843,10 +3843,10 @@
         <v>11600</v>
       </c>
       <c r="F100" s="3">
-        <v>623400</v>
+        <v>623500</v>
       </c>
       <c r="G100" s="3">
-        <v>637500</v>
+        <v>637600</v>
       </c>
       <c r="H100" s="3">
         <v>-5100</v>
@@ -3919,7 +3919,7 @@
         <v>-54700</v>
       </c>
       <c r="F102" s="3">
-        <v>567100</v>
+        <v>567200</v>
       </c>
       <c r="G102" s="3">
         <v>586900</v>
@@ -3931,7 +3931,7 @@
         <v>-28600</v>
       </c>
       <c r="J102" s="3">
-        <v>122400</v>
+        <v>122500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +723,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>302700</v>
+        <v>351700</v>
       </c>
       <c r="E8" s="3">
-        <v>244600</v>
+        <v>312800</v>
       </c>
       <c r="F8" s="3">
-        <v>424600</v>
+        <v>252700</v>
       </c>
       <c r="G8" s="3">
-        <v>226200</v>
+        <v>438700</v>
       </c>
       <c r="H8" s="3">
-        <v>327400</v>
+        <v>233800</v>
       </c>
       <c r="I8" s="3">
-        <v>264000</v>
+        <v>338300</v>
       </c>
       <c r="J8" s="3">
+        <v>272800</v>
+      </c>
+      <c r="K8" s="3">
         <v>177400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,35 +764,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>135800</v>
+        <v>150800</v>
       </c>
       <c r="E9" s="3">
-        <v>117900</v>
+        <v>140300</v>
       </c>
       <c r="F9" s="3">
-        <v>172300</v>
+        <v>121800</v>
       </c>
       <c r="G9" s="3">
-        <v>90000</v>
+        <v>178000</v>
       </c>
       <c r="H9" s="3">
-        <v>133100</v>
+        <v>93000</v>
       </c>
       <c r="I9" s="3">
-        <v>123800</v>
+        <v>137500</v>
       </c>
       <c r="J9" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K9" s="3">
         <v>77700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>167000</v>
+        <v>200900</v>
       </c>
       <c r="E10" s="3">
-        <v>126700</v>
+        <v>172500</v>
       </c>
       <c r="F10" s="3">
-        <v>252300</v>
+        <v>130900</v>
       </c>
       <c r="G10" s="3">
-        <v>136200</v>
+        <v>260600</v>
       </c>
       <c r="H10" s="3">
-        <v>194300</v>
+        <v>140700</v>
       </c>
       <c r="I10" s="3">
-        <v>140200</v>
+        <v>200800</v>
       </c>
       <c r="J10" s="3">
+        <v>144900</v>
+      </c>
+      <c r="K10" s="3">
         <v>99600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,24 +1000,24 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10800</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>6200</v>
+        <v>11100</v>
       </c>
       <c r="J15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>275300</v>
+        <v>308100</v>
       </c>
       <c r="E17" s="3">
-        <v>241100</v>
+        <v>284500</v>
       </c>
       <c r="F17" s="3">
-        <v>584000</v>
+        <v>249100</v>
       </c>
       <c r="G17" s="3">
-        <v>201500</v>
+        <v>603400</v>
       </c>
       <c r="H17" s="3">
-        <v>314400</v>
+        <v>208200</v>
       </c>
       <c r="I17" s="3">
-        <v>251300</v>
+        <v>324900</v>
       </c>
       <c r="J17" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K17" s="3">
         <v>207800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27400</v>
+        <v>43600</v>
       </c>
       <c r="E18" s="3">
-        <v>3500</v>
+        <v>28300</v>
       </c>
       <c r="F18" s="3">
-        <v>-159400</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="3">
-        <v>24700</v>
+        <v>-164700</v>
       </c>
       <c r="H18" s="3">
-        <v>13000</v>
+        <v>25600</v>
       </c>
       <c r="I18" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="J18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33000</v>
+        <v>-17100</v>
       </c>
       <c r="E20" s="3">
-        <v>16600</v>
+        <v>34100</v>
       </c>
       <c r="F20" s="3">
-        <v>-17900</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5900</v>
+        <v>-18500</v>
       </c>
       <c r="H20" s="3">
-        <v>2300</v>
+        <v>-6100</v>
       </c>
       <c r="I20" s="3">
-        <v>-6000</v>
+        <v>2400</v>
       </c>
       <c r="J20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71400</v>
+        <v>41200</v>
       </c>
       <c r="E21" s="3">
-        <v>29800</v>
+        <v>73800</v>
       </c>
       <c r="F21" s="3">
-        <v>-156800</v>
+        <v>30800</v>
       </c>
       <c r="G21" s="3">
-        <v>26900</v>
+        <v>-162000</v>
       </c>
       <c r="H21" s="3">
-        <v>27400</v>
+        <v>27800</v>
       </c>
       <c r="I21" s="3">
-        <v>14100</v>
+        <v>28400</v>
       </c>
       <c r="J21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-26000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,23 +1236,23 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>1600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>500</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60400</v>
+        <v>26500</v>
       </c>
       <c r="E23" s="3">
-        <v>20100</v>
+        <v>62400</v>
       </c>
       <c r="F23" s="3">
-        <v>-179400</v>
+        <v>20800</v>
       </c>
       <c r="G23" s="3">
-        <v>18900</v>
+        <v>-185300</v>
       </c>
       <c r="H23" s="3">
-        <v>13700</v>
+        <v>19500</v>
       </c>
       <c r="I23" s="3">
-        <v>6200</v>
+        <v>14200</v>
       </c>
       <c r="J23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,35 +1304,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9400</v>
+        <v>4400</v>
       </c>
       <c r="E24" s="3">
-        <v>5200</v>
+        <v>9700</v>
       </c>
       <c r="F24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
-        <v>5400</v>
-      </c>
       <c r="H24" s="3">
-        <v>9800</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="E26" s="3">
-        <v>14900</v>
+        <v>52700</v>
       </c>
       <c r="F26" s="3">
-        <v>-180600</v>
+        <v>15400</v>
       </c>
       <c r="G26" s="3">
-        <v>13500</v>
+        <v>-186600</v>
       </c>
       <c r="H26" s="3">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="I26" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="J26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-34300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="E27" s="3">
-        <v>14900</v>
+        <v>52700</v>
       </c>
       <c r="F27" s="3">
-        <v>-180600</v>
+        <v>15400</v>
       </c>
       <c r="G27" s="3">
-        <v>13500</v>
+        <v>-186600</v>
       </c>
       <c r="H27" s="3">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="I27" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="J27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-34300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33000</v>
+        <v>17100</v>
       </c>
       <c r="E32" s="3">
-        <v>-16600</v>
+        <v>-34100</v>
       </c>
       <c r="F32" s="3">
-        <v>17900</v>
+        <v>-17100</v>
       </c>
       <c r="G32" s="3">
-        <v>5900</v>
+        <v>18500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2300</v>
+        <v>6100</v>
       </c>
       <c r="I32" s="3">
-        <v>6000</v>
+        <v>-2400</v>
       </c>
       <c r="J32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="E33" s="3">
-        <v>14900</v>
+        <v>52700</v>
       </c>
       <c r="F33" s="3">
-        <v>-180600</v>
+        <v>15400</v>
       </c>
       <c r="G33" s="3">
-        <v>13500</v>
+        <v>-186600</v>
       </c>
       <c r="H33" s="3">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="I33" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="J33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-34300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="E35" s="3">
-        <v>14900</v>
+        <v>52700</v>
       </c>
       <c r="F35" s="3">
-        <v>-180600</v>
+        <v>15400</v>
       </c>
       <c r="G35" s="3">
-        <v>13500</v>
+        <v>-186600</v>
       </c>
       <c r="H35" s="3">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="I35" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="J35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-34300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,28 +1878,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>578700</v>
+        <v>528600</v>
       </c>
       <c r="E41" s="3">
-        <v>649900</v>
+        <v>598000</v>
       </c>
       <c r="F41" s="3">
-        <v>677800</v>
+        <v>671500</v>
       </c>
       <c r="G41" s="3">
-        <v>697600</v>
+        <v>700300</v>
       </c>
       <c r="H41" s="3">
-        <v>110700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>720800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>114400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1830,28 +1917,31 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61000</v>
+        <v>33500</v>
       </c>
       <c r="E42" s="3">
-        <v>38300</v>
+        <v>63100</v>
       </c>
       <c r="F42" s="3">
-        <v>31200</v>
+        <v>39600</v>
       </c>
       <c r="G42" s="3">
-        <v>43000</v>
+        <v>32200</v>
       </c>
       <c r="H42" s="3">
-        <v>25900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>26800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1868,28 +1958,31 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164500</v>
+        <v>191100</v>
       </c>
       <c r="E43" s="3">
-        <v>135500</v>
+        <v>170000</v>
       </c>
       <c r="F43" s="3">
-        <v>131000</v>
+        <v>140000</v>
       </c>
       <c r="G43" s="3">
-        <v>109200</v>
+        <v>135300</v>
       </c>
       <c r="H43" s="3">
-        <v>110700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>112800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>114400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1906,28 +1999,31 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>224900</v>
+        <v>281400</v>
       </c>
       <c r="E44" s="3">
-        <v>168600</v>
+        <v>232400</v>
       </c>
       <c r="F44" s="3">
-        <v>139200</v>
+        <v>174200</v>
       </c>
       <c r="G44" s="3">
-        <v>150800</v>
+        <v>143900</v>
       </c>
       <c r="H44" s="3">
-        <v>152400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>155800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>157500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1944,28 +2040,31 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71100</v>
+        <v>76900</v>
       </c>
       <c r="E45" s="3">
-        <v>61000</v>
+        <v>73400</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>63000</v>
       </c>
       <c r="G45" s="3">
-        <v>41600</v>
+        <v>22600</v>
       </c>
       <c r="H45" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>42900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1982,28 +2081,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100200</v>
+        <v>1111500</v>
       </c>
       <c r="E46" s="3">
-        <v>1053300</v>
+        <v>1136800</v>
       </c>
       <c r="F46" s="3">
-        <v>1001000</v>
+        <v>1088300</v>
       </c>
       <c r="G46" s="3">
-        <v>1042100</v>
+        <v>1034300</v>
       </c>
       <c r="H46" s="3">
-        <v>406800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1076800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>420300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,28 +2163,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>247600</v>
+        <v>446000</v>
       </c>
       <c r="E48" s="3">
-        <v>235600</v>
+        <v>255800</v>
       </c>
       <c r="F48" s="3">
-        <v>220300</v>
+        <v>243400</v>
       </c>
       <c r="G48" s="3">
-        <v>200700</v>
+        <v>227600</v>
       </c>
       <c r="H48" s="3">
-        <v>189100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>207400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>195400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2096,28 +2204,31 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>59100</v>
+        <v>60600</v>
       </c>
       <c r="E49" s="3">
-        <v>59800</v>
+        <v>61100</v>
       </c>
       <c r="F49" s="3">
-        <v>59600</v>
+        <v>61800</v>
       </c>
       <c r="G49" s="3">
-        <v>60600</v>
+        <v>61600</v>
       </c>
       <c r="H49" s="3">
-        <v>60100</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>62600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>62100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,28 +2327,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17100</v>
+        <v>23800</v>
       </c>
       <c r="E52" s="3">
-        <v>4000</v>
+        <v>17700</v>
       </c>
       <c r="F52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
-        <v>3700</v>
-      </c>
       <c r="H52" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,28 +2409,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1424100</v>
+        <v>1641900</v>
       </c>
       <c r="E54" s="3">
-        <v>1352700</v>
+        <v>1471400</v>
       </c>
       <c r="F54" s="3">
-        <v>1283200</v>
+        <v>1397700</v>
       </c>
       <c r="G54" s="3">
-        <v>1307100</v>
+        <v>1325900</v>
       </c>
       <c r="H54" s="3">
-        <v>659700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1350600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>681600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,28 +2486,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46100</v>
+        <v>62300</v>
       </c>
       <c r="E57" s="3">
-        <v>44300</v>
+        <v>47700</v>
       </c>
       <c r="F57" s="3">
-        <v>47700</v>
+        <v>45800</v>
       </c>
       <c r="G57" s="3">
-        <v>52000</v>
+        <v>49300</v>
       </c>
       <c r="H57" s="3">
-        <v>78200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>53800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>80800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2394,28 +2525,31 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27300</v>
+        <v>21800</v>
       </c>
       <c r="E58" s="3">
-        <v>57800</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>14100</v>
+        <v>59800</v>
       </c>
       <c r="G58" s="3">
-        <v>20500</v>
+        <v>14600</v>
       </c>
       <c r="H58" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2432,28 +2566,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171500</v>
+        <v>126800</v>
       </c>
       <c r="E59" s="3">
-        <v>144500</v>
+        <v>177200</v>
       </c>
       <c r="F59" s="3">
-        <v>150900</v>
+        <v>149300</v>
       </c>
       <c r="G59" s="3">
-        <v>123700</v>
+        <v>156000</v>
       </c>
       <c r="H59" s="3">
-        <v>114600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>127800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>118400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2470,28 +2607,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245000</v>
+        <v>210900</v>
       </c>
       <c r="E60" s="3">
-        <v>246600</v>
+        <v>253100</v>
       </c>
       <c r="F60" s="3">
-        <v>212800</v>
+        <v>254800</v>
       </c>
       <c r="G60" s="3">
-        <v>196300</v>
+        <v>219800</v>
       </c>
       <c r="H60" s="3">
-        <v>204200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>202800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>210900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2508,28 +2648,31 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>183000</v>
+        <v>371000</v>
       </c>
       <c r="E61" s="3">
-        <v>175500</v>
+        <v>189100</v>
       </c>
       <c r="F61" s="3">
-        <v>173500</v>
+        <v>181300</v>
       </c>
       <c r="G61" s="3">
-        <v>166900</v>
+        <v>179300</v>
       </c>
       <c r="H61" s="3">
-        <v>162800</v>
+        <v>172500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>168200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2546,28 +2689,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24900</v>
+        <v>29600</v>
       </c>
       <c r="E62" s="3">
-        <v>19100</v>
+        <v>25700</v>
       </c>
       <c r="F62" s="3">
-        <v>16500</v>
+        <v>19700</v>
       </c>
       <c r="G62" s="3">
-        <v>13500</v>
+        <v>17100</v>
       </c>
       <c r="H62" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>14500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,28 +2853,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>452800</v>
+        <v>611500</v>
       </c>
       <c r="E66" s="3">
-        <v>441200</v>
+        <v>467900</v>
       </c>
       <c r="F66" s="3">
-        <v>402800</v>
+        <v>455900</v>
       </c>
       <c r="G66" s="3">
-        <v>376700</v>
+        <v>416200</v>
       </c>
       <c r="H66" s="3">
-        <v>381000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>389200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>393700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,28 +3075,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>963700</v>
+        <v>1022500</v>
       </c>
       <c r="E72" s="3">
-        <v>903600</v>
+        <v>995700</v>
       </c>
       <c r="F72" s="3">
-        <v>97500</v>
+        <v>933600</v>
       </c>
       <c r="G72" s="3">
-        <v>898300</v>
+        <v>100700</v>
       </c>
       <c r="H72" s="3">
-        <v>100900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>928200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>104300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,28 +3239,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>971200</v>
+        <v>1030400</v>
       </c>
       <c r="E76" s="3">
-        <v>911500</v>
+        <v>1003500</v>
       </c>
       <c r="F76" s="3">
-        <v>880400</v>
+        <v>941800</v>
       </c>
       <c r="G76" s="3">
-        <v>930500</v>
+        <v>909700</v>
       </c>
       <c r="H76" s="3">
-        <v>278700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>961400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>288000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="E81" s="3">
-        <v>14900</v>
+        <v>52700</v>
       </c>
       <c r="F81" s="3">
-        <v>-180600</v>
+        <v>15400</v>
       </c>
       <c r="G81" s="3">
-        <v>13500</v>
+        <v>-186600</v>
       </c>
       <c r="H81" s="3">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="I81" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="J81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-34300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,35 +3427,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>14700</v>
       </c>
       <c r="E83" s="3">
-        <v>9700</v>
+        <v>11400</v>
       </c>
       <c r="F83" s="3">
-        <v>20500</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="3">
-        <v>8000</v>
+        <v>21200</v>
       </c>
       <c r="H83" s="3">
-        <v>12100</v>
+        <v>8300</v>
       </c>
       <c r="I83" s="3">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="J83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65500</v>
+        <v>-33000</v>
       </c>
       <c r="E89" s="3">
-        <v>-65600</v>
+        <v>-67700</v>
       </c>
       <c r="F89" s="3">
-        <v>-13300</v>
+        <v>-67700</v>
       </c>
       <c r="G89" s="3">
-        <v>-39700</v>
+        <v>-13700</v>
       </c>
       <c r="H89" s="3">
-        <v>30900</v>
+        <v>-41000</v>
       </c>
       <c r="I89" s="3">
-        <v>-13400</v>
+        <v>31900</v>
       </c>
       <c r="J89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3731,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9900</v>
+        <v>-21500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14600</v>
+        <v>-10200</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-15100</v>
       </c>
       <c r="G91" s="3">
-        <v>-8900</v>
+        <v>-22700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3600</v>
+        <v>-9200</v>
       </c>
       <c r="I91" s="3">
-        <v>-7200</v>
+        <v>-3700</v>
       </c>
       <c r="J91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11400</v>
+        <v>-23600</v>
       </c>
       <c r="E94" s="3">
-        <v>-16900</v>
+        <v>-11700</v>
       </c>
       <c r="F94" s="3">
-        <v>-27700</v>
+        <v>-17500</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000</v>
+        <v>-28600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11800</v>
+        <v>-10500</v>
       </c>
       <c r="J94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4074,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1400</v>
+        <v>-2700</v>
       </c>
       <c r="E100" s="3">
-        <v>11600</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>623500</v>
+        <v>12000</v>
       </c>
       <c r="G100" s="3">
-        <v>637600</v>
+        <v>644200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5100</v>
+        <v>658800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2400</v>
+        <v>-5300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K100" s="3">
         <v>131900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,34 +4115,37 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31100</v>
+        <v>-10000</v>
       </c>
       <c r="E101" s="3">
-        <v>16300</v>
+        <v>32100</v>
       </c>
       <c r="F101" s="3">
-        <v>-15400</v>
+        <v>16800</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44400</v>
+        <v>-69400</v>
       </c>
       <c r="E102" s="3">
-        <v>-54700</v>
+        <v>-45800</v>
       </c>
       <c r="F102" s="3">
-        <v>567200</v>
+        <v>-56500</v>
       </c>
       <c r="G102" s="3">
-        <v>586900</v>
+        <v>586000</v>
       </c>
       <c r="H102" s="3">
-        <v>16600</v>
+        <v>606400</v>
       </c>
       <c r="I102" s="3">
-        <v>-28600</v>
+        <v>17100</v>
       </c>
       <c r="J102" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K102" s="3">
         <v>122500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,217 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>351700</v>
+        <v>464100</v>
       </c>
       <c r="E8" s="3">
-        <v>312800</v>
+        <v>405000</v>
       </c>
       <c r="F8" s="3">
-        <v>252700</v>
+        <v>362300</v>
       </c>
       <c r="G8" s="3">
-        <v>438700</v>
+        <v>322200</v>
       </c>
       <c r="H8" s="3">
-        <v>233800</v>
+        <v>260300</v>
       </c>
       <c r="I8" s="3">
+        <v>451800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K8" s="3">
         <v>338300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>272800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>177400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>150800</v>
+        <v>193600</v>
       </c>
       <c r="E9" s="3">
-        <v>140300</v>
+        <v>168100</v>
       </c>
       <c r="F9" s="3">
-        <v>121800</v>
+        <v>155300</v>
       </c>
       <c r="G9" s="3">
-        <v>178000</v>
+        <v>144500</v>
       </c>
       <c r="H9" s="3">
-        <v>93000</v>
+        <v>125500</v>
       </c>
       <c r="I9" s="3">
+        <v>183400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K9" s="3">
         <v>137500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>127900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>77700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200900</v>
+        <v>270500</v>
       </c>
       <c r="E10" s="3">
-        <v>172500</v>
+        <v>237000</v>
       </c>
       <c r="F10" s="3">
-        <v>130900</v>
+        <v>207000</v>
       </c>
       <c r="G10" s="3">
-        <v>260600</v>
+        <v>177700</v>
       </c>
       <c r="H10" s="3">
-        <v>140700</v>
+        <v>134800</v>
       </c>
       <c r="I10" s="3">
+        <v>268500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K10" s="3">
         <v>200800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>144900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>99600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +891,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +981,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1028,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,35 +1048,41 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>19600</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>6400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>308100</v>
+        <v>417400</v>
       </c>
       <c r="E17" s="3">
-        <v>284500</v>
+        <v>388800</v>
       </c>
       <c r="F17" s="3">
-        <v>249100</v>
+        <v>317300</v>
       </c>
       <c r="G17" s="3">
-        <v>603400</v>
+        <v>293000</v>
       </c>
       <c r="H17" s="3">
-        <v>208200</v>
+        <v>256600</v>
       </c>
       <c r="I17" s="3">
+        <v>621500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K17" s="3">
         <v>324900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>259700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>207800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43600</v>
+        <v>46700</v>
       </c>
       <c r="E18" s="3">
-        <v>28300</v>
+        <v>16200</v>
       </c>
       <c r="F18" s="3">
-        <v>3600</v>
+        <v>44900</v>
       </c>
       <c r="G18" s="3">
-        <v>-164700</v>
+        <v>29100</v>
       </c>
       <c r="H18" s="3">
-        <v>25600</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="3">
+        <v>-169700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K18" s="3">
         <v>13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-30400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,90 +1208,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17100</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="3">
-        <v>34100</v>
+        <v>-43100</v>
       </c>
       <c r="F20" s="3">
-        <v>17100</v>
+        <v>-17600</v>
       </c>
       <c r="G20" s="3">
-        <v>-18500</v>
+        <v>35100</v>
       </c>
       <c r="H20" s="3">
-        <v>-6100</v>
+        <v>17700</v>
       </c>
       <c r="I20" s="3">
-        <v>2400</v>
+        <v>-19000</v>
       </c>
       <c r="J20" s="3">
         <v>-6200</v>
       </c>
       <c r="K20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>41200</v>
+        <v>72100</v>
       </c>
       <c r="E21" s="3">
-        <v>73800</v>
+        <v>-12900</v>
       </c>
       <c r="F21" s="3">
-        <v>30800</v>
+        <v>42500</v>
       </c>
       <c r="G21" s="3">
-        <v>-162000</v>
+        <v>76000</v>
       </c>
       <c r="H21" s="3">
-        <v>27800</v>
+        <v>31700</v>
       </c>
       <c r="I21" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K21" s="3">
         <v>28400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-26000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,117 +1318,135 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26500</v>
+        <v>56900</v>
       </c>
       <c r="E23" s="3">
-        <v>62400</v>
+        <v>-27000</v>
       </c>
       <c r="F23" s="3">
-        <v>20800</v>
+        <v>27300</v>
       </c>
       <c r="G23" s="3">
-        <v>-185300</v>
+        <v>64300</v>
       </c>
       <c r="H23" s="3">
-        <v>19500</v>
+        <v>21400</v>
       </c>
       <c r="I23" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K23" s="3">
         <v>14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4400</v>
+        <v>7800</v>
       </c>
       <c r="E24" s="3">
-        <v>9700</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="3">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="G24" s="3">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="3">
         <v>5600</v>
       </c>
       <c r="I24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K24" s="3">
         <v>10200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22100</v>
+        <v>49000</v>
       </c>
       <c r="E26" s="3">
-        <v>52700</v>
+        <v>-29200</v>
       </c>
       <c r="F26" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="G26" s="3">
-        <v>-186600</v>
+        <v>54300</v>
       </c>
       <c r="H26" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="I26" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-34300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22100</v>
+        <v>49000</v>
       </c>
       <c r="E27" s="3">
-        <v>52700</v>
+        <v>-29200</v>
       </c>
       <c r="F27" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="G27" s="3">
-        <v>-186600</v>
+        <v>54300</v>
       </c>
       <c r="H27" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="I27" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-34300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1768,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17100</v>
+        <v>-10200</v>
       </c>
       <c r="E32" s="3">
-        <v>-34100</v>
+        <v>43100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17100</v>
+        <v>17600</v>
       </c>
       <c r="G32" s="3">
-        <v>18500</v>
+        <v>-35100</v>
       </c>
       <c r="H32" s="3">
-        <v>6100</v>
+        <v>-17700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2400</v>
+        <v>19000</v>
       </c>
       <c r="J32" s="3">
         <v>6200</v>
       </c>
       <c r="K32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22100</v>
+        <v>49000</v>
       </c>
       <c r="E33" s="3">
-        <v>52700</v>
+        <v>-29200</v>
       </c>
       <c r="F33" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="G33" s="3">
-        <v>-186600</v>
+        <v>54300</v>
       </c>
       <c r="H33" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="I33" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-34300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22100</v>
+        <v>49000</v>
       </c>
       <c r="E35" s="3">
-        <v>52700</v>
+        <v>-29200</v>
       </c>
       <c r="F35" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="G35" s="3">
-        <v>-186600</v>
+        <v>54300</v>
       </c>
       <c r="H35" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="I35" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-34300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +2050,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>528600</v>
+        <v>399000</v>
       </c>
       <c r="E41" s="3">
-        <v>598000</v>
+        <v>409800</v>
       </c>
       <c r="F41" s="3">
-        <v>671500</v>
+        <v>544500</v>
       </c>
       <c r="G41" s="3">
-        <v>700300</v>
+        <v>615900</v>
       </c>
       <c r="H41" s="3">
-        <v>720800</v>
+        <v>691700</v>
       </c>
       <c r="I41" s="3">
+        <v>721300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>742500</v>
+      </c>
+      <c r="K41" s="3">
         <v>114400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,35 +2093,41 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33500</v>
+        <v>38400</v>
       </c>
       <c r="E42" s="3">
-        <v>63100</v>
+        <v>36700</v>
       </c>
       <c r="F42" s="3">
-        <v>39600</v>
+        <v>34500</v>
       </c>
       <c r="G42" s="3">
-        <v>32200</v>
+        <v>64900</v>
       </c>
       <c r="H42" s="3">
-        <v>44400</v>
+        <v>40800</v>
       </c>
       <c r="I42" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K42" s="3">
         <v>26800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,35 +2140,41 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>191100</v>
+        <v>263400</v>
       </c>
       <c r="E43" s="3">
-        <v>170000</v>
+        <v>192800</v>
       </c>
       <c r="F43" s="3">
-        <v>140000</v>
+        <v>196900</v>
       </c>
       <c r="G43" s="3">
-        <v>135300</v>
+        <v>175100</v>
       </c>
       <c r="H43" s="3">
-        <v>112800</v>
+        <v>144200</v>
       </c>
       <c r="I43" s="3">
+        <v>139400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K43" s="3">
         <v>114400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,35 +2187,41 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>281400</v>
+        <v>513800</v>
       </c>
       <c r="E44" s="3">
-        <v>232400</v>
+        <v>436900</v>
       </c>
       <c r="F44" s="3">
-        <v>174200</v>
+        <v>289900</v>
       </c>
       <c r="G44" s="3">
-        <v>143900</v>
+        <v>239400</v>
       </c>
       <c r="H44" s="3">
-        <v>155800</v>
+        <v>179400</v>
       </c>
       <c r="I44" s="3">
+        <v>148200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K44" s="3">
         <v>157500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,35 +2234,41 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>76900</v>
+        <v>102100</v>
       </c>
       <c r="E45" s="3">
-        <v>73400</v>
+        <v>85200</v>
       </c>
       <c r="F45" s="3">
-        <v>63000</v>
+        <v>79200</v>
       </c>
       <c r="G45" s="3">
-        <v>22600</v>
+        <v>75600</v>
       </c>
       <c r="H45" s="3">
-        <v>42900</v>
+        <v>64900</v>
       </c>
       <c r="I45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,35 +2281,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1111500</v>
+        <v>1316800</v>
       </c>
       <c r="E46" s="3">
-        <v>1136800</v>
+        <v>1161400</v>
       </c>
       <c r="F46" s="3">
-        <v>1088300</v>
+        <v>1144900</v>
       </c>
       <c r="G46" s="3">
-        <v>1034300</v>
+        <v>1171000</v>
       </c>
       <c r="H46" s="3">
-        <v>1076800</v>
+        <v>1121000</v>
       </c>
       <c r="I46" s="3">
+        <v>1065400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1109100</v>
+      </c>
+      <c r="K46" s="3">
         <v>420300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2328,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,35 +2375,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>446000</v>
+        <v>268300</v>
       </c>
       <c r="E48" s="3">
-        <v>255800</v>
+        <v>252700</v>
       </c>
       <c r="F48" s="3">
-        <v>243400</v>
+        <v>459400</v>
       </c>
       <c r="G48" s="3">
-        <v>227600</v>
+        <v>263500</v>
       </c>
       <c r="H48" s="3">
-        <v>207400</v>
+        <v>250700</v>
       </c>
       <c r="I48" s="3">
+        <v>234500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>213600</v>
+      </c>
+      <c r="K48" s="3">
         <v>195400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,35 +2422,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60600</v>
+        <v>76300</v>
       </c>
       <c r="E49" s="3">
-        <v>61100</v>
+        <v>77600</v>
       </c>
       <c r="F49" s="3">
-        <v>61800</v>
+        <v>62400</v>
       </c>
       <c r="G49" s="3">
-        <v>61600</v>
+        <v>62900</v>
       </c>
       <c r="H49" s="3">
-        <v>62600</v>
+        <v>63700</v>
       </c>
       <c r="I49" s="3">
+        <v>63500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K49" s="3">
         <v>62100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2469,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2563,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23800</v>
+        <v>44300</v>
       </c>
       <c r="E52" s="3">
-        <v>17700</v>
+        <v>35100</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
+        <v>24500</v>
       </c>
       <c r="G52" s="3">
-        <v>2300</v>
+        <v>18200</v>
       </c>
       <c r="H52" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2657,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1641900</v>
+        <v>1705600</v>
       </c>
       <c r="E54" s="3">
-        <v>1471400</v>
+        <v>1526800</v>
       </c>
       <c r="F54" s="3">
-        <v>1397700</v>
+        <v>1691200</v>
       </c>
       <c r="G54" s="3">
-        <v>1325900</v>
+        <v>1515600</v>
       </c>
       <c r="H54" s="3">
-        <v>1350600</v>
+        <v>1439600</v>
       </c>
       <c r="I54" s="3">
+        <v>1365700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1391100</v>
+      </c>
+      <c r="K54" s="3">
         <v>681600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2746,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62300</v>
+        <v>144400</v>
       </c>
       <c r="E57" s="3">
-        <v>47700</v>
+        <v>122600</v>
       </c>
       <c r="F57" s="3">
-        <v>45800</v>
+        <v>64200</v>
       </c>
       <c r="G57" s="3">
-        <v>49300</v>
+        <v>49100</v>
       </c>
       <c r="H57" s="3">
-        <v>53800</v>
+        <v>47200</v>
       </c>
       <c r="I57" s="3">
+        <v>50700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K57" s="3">
         <v>80800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,35 +2789,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21800</v>
+        <v>39100</v>
       </c>
       <c r="E58" s="3">
-        <v>28200</v>
+        <v>34500</v>
       </c>
       <c r="F58" s="3">
-        <v>59800</v>
+        <v>22400</v>
       </c>
       <c r="G58" s="3">
-        <v>14600</v>
+        <v>29100</v>
       </c>
       <c r="H58" s="3">
-        <v>21200</v>
+        <v>61500</v>
       </c>
       <c r="I58" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,35 +2836,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126800</v>
+        <v>200900</v>
       </c>
       <c r="E59" s="3">
-        <v>177200</v>
+        <v>111000</v>
       </c>
       <c r="F59" s="3">
-        <v>149300</v>
+        <v>130600</v>
       </c>
       <c r="G59" s="3">
-        <v>156000</v>
+        <v>182600</v>
       </c>
       <c r="H59" s="3">
-        <v>127800</v>
+        <v>153800</v>
       </c>
       <c r="I59" s="3">
+        <v>160600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K59" s="3">
         <v>118400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2883,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>268100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>217300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>262500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>226400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K60" s="3">
         <v>210900</v>
       </c>
-      <c r="E60" s="3">
-        <v>253100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>254800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>219800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>202800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>210900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,35 +2930,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>371000</v>
+        <v>164600</v>
       </c>
       <c r="E61" s="3">
-        <v>189100</v>
+        <v>153300</v>
       </c>
       <c r="F61" s="3">
-        <v>181300</v>
+        <v>382100</v>
       </c>
       <c r="G61" s="3">
-        <v>179300</v>
+        <v>194800</v>
       </c>
       <c r="H61" s="3">
-        <v>172500</v>
+        <v>186800</v>
       </c>
       <c r="I61" s="3">
+        <v>184700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K61" s="3">
         <v>168200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2977,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29600</v>
+        <v>31600</v>
       </c>
       <c r="E62" s="3">
-        <v>25700</v>
+        <v>34700</v>
       </c>
       <c r="F62" s="3">
-        <v>19700</v>
+        <v>30500</v>
       </c>
       <c r="G62" s="3">
-        <v>17100</v>
+        <v>26500</v>
       </c>
       <c r="H62" s="3">
-        <v>13900</v>
+        <v>20300</v>
       </c>
       <c r="I62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K62" s="3">
         <v>14500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3165,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>611500</v>
+        <v>580500</v>
       </c>
       <c r="E66" s="3">
-        <v>467900</v>
+        <v>456000</v>
       </c>
       <c r="F66" s="3">
-        <v>455900</v>
+        <v>629900</v>
       </c>
       <c r="G66" s="3">
-        <v>416200</v>
+        <v>481900</v>
       </c>
       <c r="H66" s="3">
-        <v>389200</v>
+        <v>469600</v>
       </c>
       <c r="I66" s="3">
+        <v>428700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>400900</v>
+      </c>
+      <c r="K66" s="3">
         <v>393700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3419,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1022500</v>
+        <v>1117200</v>
       </c>
       <c r="E72" s="3">
-        <v>995700</v>
+        <v>1062700</v>
       </c>
       <c r="F72" s="3">
-        <v>933600</v>
+        <v>1053300</v>
       </c>
       <c r="G72" s="3">
-        <v>100700</v>
+        <v>1025600</v>
       </c>
       <c r="H72" s="3">
-        <v>928200</v>
+        <v>961700</v>
       </c>
       <c r="I72" s="3">
+        <v>103800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>956100</v>
+      </c>
+      <c r="K72" s="3">
         <v>104300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3607,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1030400</v>
+        <v>1125100</v>
       </c>
       <c r="E76" s="3">
-        <v>1003500</v>
+        <v>1070800</v>
       </c>
       <c r="F76" s="3">
-        <v>941800</v>
+        <v>1061300</v>
       </c>
       <c r="G76" s="3">
-        <v>909700</v>
+        <v>1033700</v>
       </c>
       <c r="H76" s="3">
-        <v>961400</v>
+        <v>970100</v>
       </c>
       <c r="I76" s="3">
+        <v>937000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>990300</v>
+      </c>
+      <c r="K76" s="3">
         <v>288000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22100</v>
+        <v>49000</v>
       </c>
       <c r="E81" s="3">
-        <v>52700</v>
+        <v>-29200</v>
       </c>
       <c r="F81" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="G81" s="3">
-        <v>-186600</v>
+        <v>54300</v>
       </c>
       <c r="H81" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="I81" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-34300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3823,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="E83" s="3">
-        <v>11400</v>
+        <v>14100</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>15200</v>
       </c>
       <c r="G83" s="3">
-        <v>21200</v>
+        <v>11800</v>
       </c>
       <c r="H83" s="3">
-        <v>8300</v>
+        <v>10300</v>
       </c>
       <c r="I83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33000</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-67700</v>
+        <v>-77200</v>
       </c>
       <c r="F89" s="3">
-        <v>-67700</v>
+        <v>-34000</v>
       </c>
       <c r="G89" s="3">
-        <v>-13700</v>
+        <v>-69700</v>
       </c>
       <c r="H89" s="3">
-        <v>-41000</v>
+        <v>-69800</v>
       </c>
       <c r="I89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="K89" s="3">
         <v>31900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21500</v>
+        <v>-9800</v>
       </c>
       <c r="E91" s="3">
-        <v>-10200</v>
+        <v>-33700</v>
       </c>
       <c r="F91" s="3">
-        <v>-15100</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-22700</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9200</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23600</v>
+        <v>-10700</v>
       </c>
       <c r="E94" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-28600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,81 +4562,93 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2700</v>
+        <v>-4200</v>
       </c>
       <c r="E100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>644200</v>
-      </c>
       <c r="H100" s="3">
-        <v>658800</v>
+        <v>12300</v>
       </c>
       <c r="I100" s="3">
+        <v>663600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>678600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>131900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10000</v>
+        <v>4900</v>
       </c>
       <c r="E101" s="3">
-        <v>32100</v>
+        <v>-16300</v>
       </c>
       <c r="F101" s="3">
-        <v>16800</v>
+        <v>-10300</v>
       </c>
       <c r="G101" s="3">
-        <v>-15900</v>
+        <v>33100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="I101" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-69400</v>
+        <v>-10700</v>
       </c>
       <c r="E102" s="3">
-        <v>-45800</v>
+        <v>-134700</v>
       </c>
       <c r="F102" s="3">
-        <v>-56500</v>
+        <v>-71400</v>
       </c>
       <c r="G102" s="3">
-        <v>586000</v>
+        <v>-47200</v>
       </c>
       <c r="H102" s="3">
-        <v>606400</v>
+        <v>-58200</v>
       </c>
       <c r="I102" s="3">
+        <v>603600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>624700</v>
+      </c>
+      <c r="K102" s="3">
         <v>17100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-29500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>122500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,44 +734,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>464100</v>
+        <v>503100</v>
       </c>
       <c r="E8" s="3">
-        <v>405000</v>
+        <v>475800</v>
       </c>
       <c r="F8" s="3">
-        <v>362300</v>
+        <v>415200</v>
       </c>
       <c r="G8" s="3">
-        <v>322200</v>
+        <v>371400</v>
       </c>
       <c r="H8" s="3">
-        <v>260300</v>
+        <v>330300</v>
       </c>
       <c r="I8" s="3">
-        <v>451800</v>
+        <v>266900</v>
       </c>
       <c r="J8" s="3">
+        <v>463300</v>
+      </c>
+      <c r="K8" s="3">
         <v>240800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>338300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>272800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,44 +784,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>193600</v>
+        <v>203600</v>
       </c>
       <c r="E9" s="3">
-        <v>168100</v>
+        <v>198500</v>
       </c>
       <c r="F9" s="3">
-        <v>155300</v>
+        <v>172300</v>
       </c>
       <c r="G9" s="3">
-        <v>144500</v>
+        <v>159200</v>
       </c>
       <c r="H9" s="3">
-        <v>125500</v>
+        <v>148100</v>
       </c>
       <c r="I9" s="3">
-        <v>183400</v>
+        <v>128600</v>
       </c>
       <c r="J9" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K9" s="3">
         <v>95800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,44 +834,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>270500</v>
+        <v>299500</v>
       </c>
       <c r="E10" s="3">
-        <v>237000</v>
+        <v>277300</v>
       </c>
       <c r="F10" s="3">
-        <v>207000</v>
+        <v>242900</v>
       </c>
       <c r="G10" s="3">
-        <v>177700</v>
+        <v>212200</v>
       </c>
       <c r="H10" s="3">
-        <v>134800</v>
+        <v>182200</v>
       </c>
       <c r="I10" s="3">
-        <v>268500</v>
+        <v>138300</v>
       </c>
       <c r="J10" s="3">
+        <v>275200</v>
+      </c>
+      <c r="K10" s="3">
         <v>145000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>144900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,24 +1077,24 @@
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>417400</v>
+        <v>458500</v>
       </c>
       <c r="E17" s="3">
-        <v>388800</v>
+        <v>427900</v>
       </c>
       <c r="F17" s="3">
-        <v>317300</v>
+        <v>398600</v>
       </c>
       <c r="G17" s="3">
-        <v>293000</v>
+        <v>325400</v>
       </c>
       <c r="H17" s="3">
-        <v>256600</v>
+        <v>300400</v>
       </c>
       <c r="I17" s="3">
-        <v>621500</v>
+        <v>263100</v>
       </c>
       <c r="J17" s="3">
+        <v>637200</v>
+      </c>
+      <c r="K17" s="3">
         <v>214400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>324900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>259700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>207800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46700</v>
+        <v>44600</v>
       </c>
       <c r="E18" s="3">
-        <v>16200</v>
+        <v>47900</v>
       </c>
       <c r="F18" s="3">
-        <v>44900</v>
+        <v>16600</v>
       </c>
       <c r="G18" s="3">
-        <v>29100</v>
+        <v>46100</v>
       </c>
       <c r="H18" s="3">
-        <v>3700</v>
+        <v>29900</v>
       </c>
       <c r="I18" s="3">
-        <v>-169700</v>
+        <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>-173900</v>
+      </c>
+      <c r="K18" s="3">
         <v>26300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,44 +1243,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10200</v>
+        <v>-50200</v>
       </c>
       <c r="E20" s="3">
-        <v>-43100</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>-17600</v>
+        <v>-44200</v>
       </c>
       <c r="G20" s="3">
-        <v>35100</v>
+        <v>-18000</v>
       </c>
       <c r="H20" s="3">
-        <v>17700</v>
+        <v>36000</v>
       </c>
       <c r="I20" s="3">
-        <v>-19000</v>
+        <v>18100</v>
       </c>
       <c r="J20" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72100</v>
+        <v>10500</v>
       </c>
       <c r="E21" s="3">
-        <v>-12900</v>
+        <v>73900</v>
       </c>
       <c r="F21" s="3">
-        <v>42500</v>
+        <v>-13200</v>
       </c>
       <c r="G21" s="3">
-        <v>76000</v>
+        <v>43600</v>
       </c>
       <c r="H21" s="3">
-        <v>31700</v>
+        <v>78000</v>
       </c>
       <c r="I21" s="3">
-        <v>-166900</v>
+        <v>32500</v>
       </c>
       <c r="J21" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,13 +1341,16 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1324,23 +1364,23 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>500</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>56900</v>
+        <v>-7600</v>
       </c>
       <c r="E23" s="3">
-        <v>-27000</v>
+        <v>58300</v>
       </c>
       <c r="F23" s="3">
-        <v>27300</v>
+        <v>-27600</v>
       </c>
       <c r="G23" s="3">
-        <v>64300</v>
+        <v>28000</v>
       </c>
       <c r="H23" s="3">
-        <v>21400</v>
+        <v>65900</v>
       </c>
       <c r="I23" s="3">
-        <v>-190900</v>
+        <v>21900</v>
       </c>
       <c r="J23" s="3">
+        <v>-195700</v>
+      </c>
+      <c r="K23" s="3">
         <v>20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,44 +1441,47 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7800</v>
+        <v>-11300</v>
       </c>
       <c r="E24" s="3">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="F24" s="3">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="G24" s="3">
-        <v>10000</v>
+        <v>4700</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>10200</v>
       </c>
       <c r="I24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>49000</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-29200</v>
+        <v>50300</v>
       </c>
       <c r="F26" s="3">
-        <v>22800</v>
+        <v>-29900</v>
       </c>
       <c r="G26" s="3">
-        <v>54300</v>
+        <v>23400</v>
       </c>
       <c r="H26" s="3">
-        <v>15800</v>
+        <v>55700</v>
       </c>
       <c r="I26" s="3">
-        <v>-192200</v>
+        <v>16200</v>
       </c>
       <c r="J26" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K26" s="3">
         <v>14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>49000</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-29200</v>
+        <v>50300</v>
       </c>
       <c r="F27" s="3">
-        <v>22800</v>
+        <v>-29900</v>
       </c>
       <c r="G27" s="3">
-        <v>54300</v>
+        <v>23400</v>
       </c>
       <c r="H27" s="3">
-        <v>15800</v>
+        <v>55700</v>
       </c>
       <c r="I27" s="3">
-        <v>-192200</v>
+        <v>16200</v>
       </c>
       <c r="J27" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K27" s="3">
         <v>14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,44 +1841,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10200</v>
+        <v>50200</v>
       </c>
       <c r="E32" s="3">
-        <v>43100</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>17600</v>
+        <v>44200</v>
       </c>
       <c r="G32" s="3">
-        <v>-35100</v>
+        <v>18000</v>
       </c>
       <c r="H32" s="3">
-        <v>-17700</v>
+        <v>-36000</v>
       </c>
       <c r="I32" s="3">
-        <v>19000</v>
+        <v>-18100</v>
       </c>
       <c r="J32" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>49000</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-29200</v>
+        <v>50300</v>
       </c>
       <c r="F33" s="3">
-        <v>22800</v>
+        <v>-29900</v>
       </c>
       <c r="G33" s="3">
-        <v>54300</v>
+        <v>23400</v>
       </c>
       <c r="H33" s="3">
-        <v>15800</v>
+        <v>55700</v>
       </c>
       <c r="I33" s="3">
-        <v>-192200</v>
+        <v>16200</v>
       </c>
       <c r="J33" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K33" s="3">
         <v>14400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>49000</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-29200</v>
+        <v>50300</v>
       </c>
       <c r="F35" s="3">
-        <v>22800</v>
+        <v>-29900</v>
       </c>
       <c r="G35" s="3">
-        <v>54300</v>
+        <v>23400</v>
       </c>
       <c r="H35" s="3">
-        <v>15800</v>
+        <v>55700</v>
       </c>
       <c r="I35" s="3">
-        <v>-192200</v>
+        <v>16200</v>
       </c>
       <c r="J35" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K35" s="3">
         <v>14400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>399000</v>
+        <v>381700</v>
       </c>
       <c r="E41" s="3">
-        <v>409800</v>
+        <v>409100</v>
       </c>
       <c r="F41" s="3">
-        <v>544500</v>
+        <v>420100</v>
       </c>
       <c r="G41" s="3">
-        <v>615900</v>
+        <v>558200</v>
       </c>
       <c r="H41" s="3">
-        <v>691700</v>
+        <v>631500</v>
       </c>
       <c r="I41" s="3">
-        <v>721300</v>
+        <v>709200</v>
       </c>
       <c r="J41" s="3">
+        <v>739500</v>
+      </c>
+      <c r="K41" s="3">
         <v>742500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2186,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38400</v>
+        <v>48800</v>
       </c>
       <c r="E42" s="3">
-        <v>36700</v>
+        <v>39400</v>
       </c>
       <c r="F42" s="3">
-        <v>34500</v>
+        <v>37600</v>
       </c>
       <c r="G42" s="3">
-        <v>64900</v>
+        <v>35300</v>
       </c>
       <c r="H42" s="3">
-        <v>40800</v>
+        <v>66600</v>
       </c>
       <c r="I42" s="3">
-        <v>33200</v>
+        <v>41800</v>
       </c>
       <c r="J42" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K42" s="3">
         <v>45800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,38 +2236,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>263400</v>
+        <v>325900</v>
       </c>
       <c r="E43" s="3">
-        <v>192800</v>
+        <v>270100</v>
       </c>
       <c r="F43" s="3">
-        <v>196900</v>
+        <v>197700</v>
       </c>
       <c r="G43" s="3">
-        <v>175100</v>
+        <v>201800</v>
       </c>
       <c r="H43" s="3">
-        <v>144200</v>
+        <v>179500</v>
       </c>
       <c r="I43" s="3">
-        <v>139400</v>
+        <v>147800</v>
       </c>
       <c r="J43" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K43" s="3">
         <v>116200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,38 +2286,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>513800</v>
+        <v>493600</v>
       </c>
       <c r="E44" s="3">
-        <v>436900</v>
+        <v>526800</v>
       </c>
       <c r="F44" s="3">
-        <v>289900</v>
+        <v>448000</v>
       </c>
       <c r="G44" s="3">
-        <v>239400</v>
+        <v>297200</v>
       </c>
       <c r="H44" s="3">
-        <v>179400</v>
+        <v>245400</v>
       </c>
       <c r="I44" s="3">
-        <v>148200</v>
+        <v>184000</v>
       </c>
       <c r="J44" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K44" s="3">
         <v>160500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>157500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102100</v>
+        <v>58500</v>
       </c>
       <c r="E45" s="3">
-        <v>85200</v>
+        <v>104600</v>
       </c>
       <c r="F45" s="3">
-        <v>79200</v>
+        <v>87300</v>
       </c>
       <c r="G45" s="3">
-        <v>75600</v>
+        <v>81200</v>
       </c>
       <c r="H45" s="3">
-        <v>64900</v>
+        <v>77500</v>
       </c>
       <c r="I45" s="3">
-        <v>23300</v>
+        <v>66500</v>
       </c>
       <c r="J45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K45" s="3">
         <v>44200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1316800</v>
+        <v>1308600</v>
       </c>
       <c r="E46" s="3">
-        <v>1161400</v>
+        <v>1350000</v>
       </c>
       <c r="F46" s="3">
-        <v>1144900</v>
+        <v>1190700</v>
       </c>
       <c r="G46" s="3">
-        <v>1171000</v>
+        <v>1173800</v>
       </c>
       <c r="H46" s="3">
-        <v>1121000</v>
+        <v>1200500</v>
       </c>
       <c r="I46" s="3">
-        <v>1065400</v>
+        <v>1149300</v>
       </c>
       <c r="J46" s="3">
+        <v>1092300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1109100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>420300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>268300</v>
+        <v>268600</v>
       </c>
       <c r="E48" s="3">
-        <v>252700</v>
+        <v>275100</v>
       </c>
       <c r="F48" s="3">
-        <v>459400</v>
+        <v>259100</v>
       </c>
       <c r="G48" s="3">
-        <v>263500</v>
+        <v>471000</v>
       </c>
       <c r="H48" s="3">
-        <v>250700</v>
+        <v>270200</v>
       </c>
       <c r="I48" s="3">
-        <v>234500</v>
+        <v>257000</v>
       </c>
       <c r="J48" s="3">
+        <v>240400</v>
+      </c>
+      <c r="K48" s="3">
         <v>213600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>195400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2437,29 +2548,29 @@
         <v>76300</v>
       </c>
       <c r="E49" s="3">
-        <v>77600</v>
+        <v>78200</v>
       </c>
       <c r="F49" s="3">
-        <v>62400</v>
+        <v>79600</v>
       </c>
       <c r="G49" s="3">
-        <v>62900</v>
+        <v>64000</v>
       </c>
       <c r="H49" s="3">
-        <v>63700</v>
+        <v>64500</v>
       </c>
       <c r="I49" s="3">
-        <v>63500</v>
+        <v>65300</v>
       </c>
       <c r="J49" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K49" s="3">
         <v>64500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44300</v>
+        <v>87100</v>
       </c>
       <c r="E52" s="3">
-        <v>35100</v>
+        <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>24500</v>
+        <v>36000</v>
       </c>
       <c r="G52" s="3">
-        <v>18200</v>
+        <v>25100</v>
       </c>
       <c r="H52" s="3">
-        <v>4300</v>
+        <v>18700</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="J52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1705600</v>
+        <v>1740600</v>
       </c>
       <c r="E54" s="3">
-        <v>1526800</v>
+        <v>1748700</v>
       </c>
       <c r="F54" s="3">
-        <v>1691200</v>
+        <v>1565400</v>
       </c>
       <c r="G54" s="3">
-        <v>1515600</v>
+        <v>1733900</v>
       </c>
       <c r="H54" s="3">
-        <v>1439600</v>
+        <v>1553900</v>
       </c>
       <c r="I54" s="3">
-        <v>1365700</v>
+        <v>1476000</v>
       </c>
       <c r="J54" s="3">
+        <v>1400200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1391100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>681600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>144400</v>
+        <v>101900</v>
       </c>
       <c r="E57" s="3">
-        <v>122600</v>
+        <v>148000</v>
       </c>
       <c r="F57" s="3">
-        <v>64200</v>
+        <v>125700</v>
       </c>
       <c r="G57" s="3">
-        <v>49100</v>
+        <v>65800</v>
       </c>
       <c r="H57" s="3">
-        <v>47200</v>
+        <v>50300</v>
       </c>
       <c r="I57" s="3">
-        <v>50700</v>
+        <v>48400</v>
       </c>
       <c r="J57" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K57" s="3">
         <v>55400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>80800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,38 +2926,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39100</v>
+        <v>26500</v>
       </c>
       <c r="E58" s="3">
-        <v>34500</v>
+        <v>40100</v>
       </c>
       <c r="F58" s="3">
-        <v>22400</v>
+        <v>35300</v>
       </c>
       <c r="G58" s="3">
-        <v>29100</v>
+        <v>23000</v>
       </c>
       <c r="H58" s="3">
-        <v>61500</v>
+        <v>29800</v>
       </c>
       <c r="I58" s="3">
-        <v>15100</v>
+        <v>63100</v>
       </c>
       <c r="J58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K58" s="3">
         <v>21900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200900</v>
+        <v>244300</v>
       </c>
       <c r="E59" s="3">
-        <v>111000</v>
+        <v>206000</v>
       </c>
       <c r="F59" s="3">
-        <v>130600</v>
+        <v>113800</v>
       </c>
       <c r="G59" s="3">
-        <v>182600</v>
+        <v>133900</v>
       </c>
       <c r="H59" s="3">
-        <v>153800</v>
+        <v>187200</v>
       </c>
       <c r="I59" s="3">
-        <v>160600</v>
+        <v>157600</v>
       </c>
       <c r="J59" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K59" s="3">
         <v>131700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>384400</v>
+        <v>372700</v>
       </c>
       <c r="E60" s="3">
-        <v>268100</v>
+        <v>394100</v>
       </c>
       <c r="F60" s="3">
-        <v>217300</v>
+        <v>274800</v>
       </c>
       <c r="G60" s="3">
-        <v>260700</v>
+        <v>222700</v>
       </c>
       <c r="H60" s="3">
-        <v>262500</v>
+        <v>267300</v>
       </c>
       <c r="I60" s="3">
-        <v>226400</v>
+        <v>269100</v>
       </c>
       <c r="J60" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K60" s="3">
         <v>208900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>210900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,38 +3076,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>164600</v>
+        <v>159600</v>
       </c>
       <c r="E61" s="3">
-        <v>153300</v>
+        <v>168700</v>
       </c>
       <c r="F61" s="3">
-        <v>382100</v>
+        <v>157200</v>
       </c>
       <c r="G61" s="3">
-        <v>194800</v>
+        <v>391800</v>
       </c>
       <c r="H61" s="3">
-        <v>186800</v>
+        <v>199700</v>
       </c>
       <c r="I61" s="3">
-        <v>184700</v>
+        <v>191500</v>
       </c>
       <c r="J61" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K61" s="3">
         <v>177600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>168200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31600</v>
+        <v>45600</v>
       </c>
       <c r="E62" s="3">
-        <v>34700</v>
+        <v>32400</v>
       </c>
       <c r="F62" s="3">
-        <v>30500</v>
+        <v>35600</v>
       </c>
       <c r="G62" s="3">
-        <v>26500</v>
+        <v>31200</v>
       </c>
       <c r="H62" s="3">
-        <v>20300</v>
+        <v>27100</v>
       </c>
       <c r="I62" s="3">
-        <v>17600</v>
+        <v>20800</v>
       </c>
       <c r="J62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>580500</v>
+        <v>577800</v>
       </c>
       <c r="E66" s="3">
-        <v>456000</v>
+        <v>595200</v>
       </c>
       <c r="F66" s="3">
-        <v>629900</v>
+        <v>467600</v>
       </c>
       <c r="G66" s="3">
-        <v>481900</v>
+        <v>645800</v>
       </c>
       <c r="H66" s="3">
-        <v>469600</v>
+        <v>494100</v>
       </c>
       <c r="I66" s="3">
-        <v>428700</v>
+        <v>481400</v>
       </c>
       <c r="J66" s="3">
+        <v>439500</v>
+      </c>
+      <c r="K66" s="3">
         <v>400900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>393700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1117200</v>
+        <v>310000</v>
       </c>
       <c r="E72" s="3">
-        <v>1062700</v>
+        <v>1145400</v>
       </c>
       <c r="F72" s="3">
-        <v>1053300</v>
+        <v>1089600</v>
       </c>
       <c r="G72" s="3">
-        <v>1025600</v>
+        <v>1079900</v>
       </c>
       <c r="H72" s="3">
-        <v>961700</v>
+        <v>1051500</v>
       </c>
       <c r="I72" s="3">
-        <v>103800</v>
+        <v>986000</v>
       </c>
       <c r="J72" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K72" s="3">
         <v>956100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>104300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1125100</v>
+        <v>1162700</v>
       </c>
       <c r="E76" s="3">
-        <v>1070800</v>
+        <v>1153500</v>
       </c>
       <c r="F76" s="3">
-        <v>1061300</v>
+        <v>1097800</v>
       </c>
       <c r="G76" s="3">
-        <v>1033700</v>
+        <v>1088100</v>
       </c>
       <c r="H76" s="3">
-        <v>970100</v>
+        <v>1059800</v>
       </c>
       <c r="I76" s="3">
-        <v>937000</v>
+        <v>994600</v>
       </c>
       <c r="J76" s="3">
+        <v>960700</v>
+      </c>
+      <c r="K76" s="3">
         <v>990300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>49000</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-29200</v>
+        <v>50300</v>
       </c>
       <c r="F81" s="3">
-        <v>22800</v>
+        <v>-29900</v>
       </c>
       <c r="G81" s="3">
-        <v>54300</v>
+        <v>23400</v>
       </c>
       <c r="H81" s="3">
-        <v>15800</v>
+        <v>55700</v>
       </c>
       <c r="I81" s="3">
-        <v>-192200</v>
+        <v>16200</v>
       </c>
       <c r="J81" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K81" s="3">
         <v>14400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,44 +4023,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="E83" s="3">
-        <v>14100</v>
+        <v>15600</v>
       </c>
       <c r="F83" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="G83" s="3">
-        <v>11800</v>
+        <v>15500</v>
       </c>
       <c r="H83" s="3">
-        <v>10300</v>
+        <v>12100</v>
       </c>
       <c r="I83" s="3">
-        <v>21800</v>
+        <v>10500</v>
       </c>
       <c r="J83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-77200</v>
-      </c>
       <c r="F89" s="3">
-        <v>-34000</v>
+        <v>-79200</v>
       </c>
       <c r="G89" s="3">
-        <v>-69700</v>
+        <v>-34900</v>
       </c>
       <c r="H89" s="3">
-        <v>-69800</v>
+        <v>-71500</v>
       </c>
       <c r="I89" s="3">
-        <v>-14100</v>
+        <v>-71500</v>
       </c>
       <c r="J89" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,44 +4393,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10700</v>
+        <v>-12800</v>
       </c>
       <c r="E94" s="3">
-        <v>-37100</v>
+        <v>-11000</v>
       </c>
       <c r="F94" s="3">
-        <v>-24300</v>
+        <v>-38100</v>
       </c>
       <c r="G94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +4811,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G100" s="3">
-        <v>1500</v>
+        <v>-2900</v>
       </c>
       <c r="H100" s="3">
-        <v>12300</v>
+        <v>1600</v>
       </c>
       <c r="I100" s="3">
-        <v>663600</v>
+        <v>12700</v>
       </c>
       <c r="J100" s="3">
+        <v>680300</v>
+      </c>
+      <c r="K100" s="3">
         <v>678600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>131900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,43 +4861,46 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4900</v>
+        <v>-15900</v>
       </c>
       <c r="E101" s="3">
-        <v>-16300</v>
+        <v>5000</v>
       </c>
       <c r="F101" s="3">
-        <v>-10300</v>
+        <v>-16700</v>
       </c>
       <c r="G101" s="3">
-        <v>33100</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>33900</v>
       </c>
       <c r="I101" s="3">
-        <v>-16400</v>
+        <v>17700</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-16800</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10700</v>
+        <v>-27500</v>
       </c>
       <c r="E102" s="3">
-        <v>-134700</v>
+        <v>-11000</v>
       </c>
       <c r="F102" s="3">
-        <v>-71400</v>
+        <v>-138200</v>
       </c>
       <c r="G102" s="3">
-        <v>-47200</v>
+        <v>-73300</v>
       </c>
       <c r="H102" s="3">
-        <v>-58200</v>
+        <v>-48400</v>
       </c>
       <c r="I102" s="3">
-        <v>603600</v>
+        <v>-59600</v>
       </c>
       <c r="J102" s="3">
+        <v>618900</v>
+      </c>
+      <c r="K102" s="3">
         <v>624700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>122500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,47 +738,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>503100</v>
+        <v>540800</v>
       </c>
       <c r="E8" s="3">
-        <v>475800</v>
+        <v>500100</v>
       </c>
       <c r="F8" s="3">
-        <v>415200</v>
+        <v>472900</v>
       </c>
       <c r="G8" s="3">
-        <v>371400</v>
+        <v>412700</v>
       </c>
       <c r="H8" s="3">
-        <v>330300</v>
+        <v>369200</v>
       </c>
       <c r="I8" s="3">
-        <v>266900</v>
+        <v>328300</v>
       </c>
       <c r="J8" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K8" s="3">
         <v>463300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>240800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>338300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>272800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,47 +791,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>203600</v>
+        <v>217000</v>
       </c>
       <c r="E9" s="3">
-        <v>198500</v>
+        <v>202400</v>
       </c>
       <c r="F9" s="3">
-        <v>172300</v>
+        <v>197300</v>
       </c>
       <c r="G9" s="3">
-        <v>159200</v>
+        <v>171300</v>
       </c>
       <c r="H9" s="3">
-        <v>148100</v>
+        <v>158200</v>
       </c>
       <c r="I9" s="3">
-        <v>128600</v>
+        <v>147200</v>
       </c>
       <c r="J9" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K9" s="3">
         <v>188000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,47 +844,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>299500</v>
+        <v>323800</v>
       </c>
       <c r="E10" s="3">
-        <v>277300</v>
+        <v>297700</v>
       </c>
       <c r="F10" s="3">
-        <v>242900</v>
+        <v>275600</v>
       </c>
       <c r="G10" s="3">
-        <v>212200</v>
+        <v>241500</v>
       </c>
       <c r="H10" s="3">
-        <v>182200</v>
+        <v>210900</v>
       </c>
       <c r="I10" s="3">
-        <v>138300</v>
+        <v>181100</v>
       </c>
       <c r="J10" s="3">
+        <v>137400</v>
+      </c>
+      <c r="K10" s="3">
         <v>275200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>145000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>144900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,24 +1103,24 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>20700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>11100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>458500</v>
+        <v>475700</v>
       </c>
       <c r="E17" s="3">
-        <v>427900</v>
+        <v>455700</v>
       </c>
       <c r="F17" s="3">
-        <v>398600</v>
+        <v>425300</v>
       </c>
       <c r="G17" s="3">
-        <v>325400</v>
+        <v>396200</v>
       </c>
       <c r="H17" s="3">
-        <v>300400</v>
+        <v>323400</v>
       </c>
       <c r="I17" s="3">
-        <v>263100</v>
+        <v>298600</v>
       </c>
       <c r="J17" s="3">
+        <v>261500</v>
+      </c>
+      <c r="K17" s="3">
         <v>637200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>214400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>324900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>259700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>207800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,47 +1201,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44600</v>
+        <v>65100</v>
       </c>
       <c r="E18" s="3">
-        <v>47900</v>
+        <v>44300</v>
       </c>
       <c r="F18" s="3">
-        <v>16600</v>
+        <v>47600</v>
       </c>
       <c r="G18" s="3">
-        <v>46100</v>
+        <v>16500</v>
       </c>
       <c r="H18" s="3">
-        <v>29900</v>
+        <v>45800</v>
       </c>
       <c r="I18" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-173900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,47 +1277,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50200</v>
+        <v>12900</v>
       </c>
       <c r="E20" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="F20" s="3">
         <v>10400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-44200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-18000</v>
+        <v>-44000</v>
       </c>
       <c r="H20" s="3">
-        <v>36000</v>
+        <v>-17900</v>
       </c>
       <c r="I20" s="3">
-        <v>18100</v>
+        <v>35800</v>
       </c>
       <c r="J20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,47 +1328,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E21" s="3">
         <v>10500</v>
       </c>
-      <c r="E21" s="3">
-        <v>73900</v>
-      </c>
       <c r="F21" s="3">
+        <v>73500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13200</v>
       </c>
-      <c r="G21" s="3">
-        <v>43600</v>
-      </c>
       <c r="H21" s="3">
-        <v>78000</v>
+        <v>43300</v>
       </c>
       <c r="I21" s="3">
-        <v>32500</v>
+        <v>77500</v>
       </c>
       <c r="J21" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-171100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,17 +1381,20 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,23 +1407,23 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>1600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>500</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7600</v>
+        <v>78000</v>
       </c>
       <c r="E23" s="3">
-        <v>58300</v>
+        <v>-7500</v>
       </c>
       <c r="F23" s="3">
-        <v>-27600</v>
+        <v>58000</v>
       </c>
       <c r="G23" s="3">
-        <v>28000</v>
+        <v>-27500</v>
       </c>
       <c r="H23" s="3">
-        <v>65900</v>
+        <v>27900</v>
       </c>
       <c r="I23" s="3">
-        <v>21900</v>
+        <v>65500</v>
       </c>
       <c r="J23" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-195700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,47 +1487,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
-        <v>4700</v>
-      </c>
       <c r="H24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I24" s="3">
         <v>10200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
-        <v>50300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-29900</v>
+        <v>50000</v>
       </c>
       <c r="G26" s="3">
-        <v>23400</v>
+        <v>-29700</v>
       </c>
       <c r="H26" s="3">
-        <v>55700</v>
+        <v>23200</v>
       </c>
       <c r="I26" s="3">
-        <v>16200</v>
+        <v>55300</v>
       </c>
       <c r="J26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-197000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
-        <v>50300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-29900</v>
+        <v>50000</v>
       </c>
       <c r="G27" s="3">
-        <v>23400</v>
+        <v>-29700</v>
       </c>
       <c r="H27" s="3">
-        <v>55700</v>
+        <v>23200</v>
       </c>
       <c r="I27" s="3">
-        <v>16200</v>
+        <v>55300</v>
       </c>
       <c r="J27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-197000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,47 +1911,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50200</v>
+        <v>-12900</v>
       </c>
       <c r="E32" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10400</v>
       </c>
-      <c r="F32" s="3">
-        <v>44200</v>
-      </c>
       <c r="G32" s="3">
-        <v>18000</v>
+        <v>44000</v>
       </c>
       <c r="H32" s="3">
-        <v>-36000</v>
+        <v>17900</v>
       </c>
       <c r="I32" s="3">
-        <v>-18100</v>
+        <v>-35800</v>
       </c>
       <c r="J32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="K32" s="3">
         <v>19500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
-        <v>50300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-29900</v>
+        <v>50000</v>
       </c>
       <c r="G33" s="3">
-        <v>23400</v>
+        <v>-29700</v>
       </c>
       <c r="H33" s="3">
-        <v>55700</v>
+        <v>23200</v>
       </c>
       <c r="I33" s="3">
-        <v>16200</v>
+        <v>55300</v>
       </c>
       <c r="J33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-197000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
-        <v>50300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-29900</v>
+        <v>50000</v>
       </c>
       <c r="G35" s="3">
-        <v>23400</v>
+        <v>-29700</v>
       </c>
       <c r="H35" s="3">
-        <v>55700</v>
+        <v>23200</v>
       </c>
       <c r="I35" s="3">
-        <v>16200</v>
+        <v>55300</v>
       </c>
       <c r="J35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-197000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>381700</v>
+        <v>486200</v>
       </c>
       <c r="E41" s="3">
-        <v>409100</v>
+        <v>379400</v>
       </c>
       <c r="F41" s="3">
-        <v>420100</v>
+        <v>406600</v>
       </c>
       <c r="G41" s="3">
-        <v>558200</v>
+        <v>417600</v>
       </c>
       <c r="H41" s="3">
-        <v>631500</v>
+        <v>554800</v>
       </c>
       <c r="I41" s="3">
-        <v>709200</v>
+        <v>627700</v>
       </c>
       <c r="J41" s="3">
+        <v>704800</v>
+      </c>
+      <c r="K41" s="3">
         <v>739500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>742500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,41 +2276,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48800</v>
+        <v>58400</v>
       </c>
       <c r="E42" s="3">
-        <v>39400</v>
+        <v>48500</v>
       </c>
       <c r="F42" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="G42" s="3">
-        <v>35300</v>
+        <v>37400</v>
       </c>
       <c r="H42" s="3">
-        <v>66600</v>
+        <v>35100</v>
       </c>
       <c r="I42" s="3">
-        <v>41800</v>
+        <v>66200</v>
       </c>
       <c r="J42" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K42" s="3">
         <v>34000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,41 +2329,44 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>325900</v>
+        <v>289100</v>
       </c>
       <c r="E43" s="3">
-        <v>270100</v>
+        <v>323900</v>
       </c>
       <c r="F43" s="3">
-        <v>197700</v>
+        <v>268400</v>
       </c>
       <c r="G43" s="3">
-        <v>201800</v>
+        <v>196500</v>
       </c>
       <c r="H43" s="3">
-        <v>179500</v>
+        <v>200600</v>
       </c>
       <c r="I43" s="3">
-        <v>147800</v>
+        <v>178400</v>
       </c>
       <c r="J43" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K43" s="3">
         <v>142900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>114400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2382,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>493600</v>
+        <v>477800</v>
       </c>
       <c r="E44" s="3">
-        <v>526800</v>
+        <v>490600</v>
       </c>
       <c r="F44" s="3">
-        <v>448000</v>
+        <v>523600</v>
       </c>
       <c r="G44" s="3">
-        <v>297200</v>
+        <v>445200</v>
       </c>
       <c r="H44" s="3">
-        <v>245400</v>
+        <v>295400</v>
       </c>
       <c r="I44" s="3">
-        <v>184000</v>
+        <v>243900</v>
       </c>
       <c r="J44" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K44" s="3">
         <v>151900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>160500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>157500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58500</v>
+        <v>94500</v>
       </c>
       <c r="E45" s="3">
-        <v>104600</v>
+        <v>58200</v>
       </c>
       <c r="F45" s="3">
-        <v>87300</v>
+        <v>104000</v>
       </c>
       <c r="G45" s="3">
-        <v>81200</v>
+        <v>86800</v>
       </c>
       <c r="H45" s="3">
-        <v>77500</v>
+        <v>80700</v>
       </c>
       <c r="I45" s="3">
-        <v>66500</v>
+        <v>77100</v>
       </c>
       <c r="J45" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K45" s="3">
         <v>23900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1308600</v>
+        <v>1406100</v>
       </c>
       <c r="E46" s="3">
-        <v>1350000</v>
+        <v>1300600</v>
       </c>
       <c r="F46" s="3">
-        <v>1190700</v>
+        <v>1341800</v>
       </c>
       <c r="G46" s="3">
-        <v>1173800</v>
+        <v>1183500</v>
       </c>
       <c r="H46" s="3">
-        <v>1200500</v>
+        <v>1166700</v>
       </c>
       <c r="I46" s="3">
-        <v>1149300</v>
+        <v>1193200</v>
       </c>
       <c r="J46" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1092300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1109100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>420300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>268600</v>
+        <v>359800</v>
       </c>
       <c r="E48" s="3">
-        <v>275100</v>
+        <v>267000</v>
       </c>
       <c r="F48" s="3">
-        <v>259100</v>
+        <v>273400</v>
       </c>
       <c r="G48" s="3">
-        <v>471000</v>
+        <v>257500</v>
       </c>
       <c r="H48" s="3">
-        <v>270200</v>
+        <v>468200</v>
       </c>
       <c r="I48" s="3">
-        <v>257000</v>
+        <v>268500</v>
       </c>
       <c r="J48" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K48" s="3">
         <v>240400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>213600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>195400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,41 +2647,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>76300</v>
+        <v>73800</v>
       </c>
       <c r="E49" s="3">
-        <v>78200</v>
+        <v>75900</v>
       </c>
       <c r="F49" s="3">
-        <v>79600</v>
+        <v>77800</v>
       </c>
       <c r="G49" s="3">
-        <v>64000</v>
+        <v>79100</v>
       </c>
       <c r="H49" s="3">
+        <v>63600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>65100</v>
+      </c>
+      <c r="L49" s="3">
         <v>64500</v>
       </c>
-      <c r="I49" s="3">
-        <v>65300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>65100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>64500</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87100</v>
+        <v>79700</v>
       </c>
       <c r="E52" s="3">
-        <v>45400</v>
+        <v>86600</v>
       </c>
       <c r="F52" s="3">
-        <v>36000</v>
+        <v>45100</v>
       </c>
       <c r="G52" s="3">
-        <v>25100</v>
+        <v>35800</v>
       </c>
       <c r="H52" s="3">
-        <v>18700</v>
+        <v>24900</v>
       </c>
       <c r="I52" s="3">
-        <v>4400</v>
+        <v>18500</v>
       </c>
       <c r="J52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1740600</v>
+        <v>1919400</v>
       </c>
       <c r="E54" s="3">
-        <v>1748700</v>
+        <v>1730000</v>
       </c>
       <c r="F54" s="3">
-        <v>1565400</v>
+        <v>1738100</v>
       </c>
       <c r="G54" s="3">
-        <v>1733900</v>
+        <v>1555900</v>
       </c>
       <c r="H54" s="3">
-        <v>1553900</v>
+        <v>1723400</v>
       </c>
       <c r="I54" s="3">
-        <v>1476000</v>
+        <v>1544400</v>
       </c>
       <c r="J54" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1391100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>681600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101900</v>
+        <v>112300</v>
       </c>
       <c r="E57" s="3">
-        <v>148000</v>
+        <v>101300</v>
       </c>
       <c r="F57" s="3">
-        <v>125700</v>
+        <v>147100</v>
       </c>
       <c r="G57" s="3">
-        <v>65800</v>
+        <v>124900</v>
       </c>
       <c r="H57" s="3">
-        <v>50300</v>
+        <v>65400</v>
       </c>
       <c r="I57" s="3">
-        <v>48400</v>
+        <v>50000</v>
       </c>
       <c r="J57" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K57" s="3">
         <v>52000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>80800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,41 +3060,44 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26500</v>
+        <v>53800</v>
       </c>
       <c r="E58" s="3">
-        <v>40100</v>
+        <v>26300</v>
       </c>
       <c r="F58" s="3">
-        <v>35300</v>
+        <v>39800</v>
       </c>
       <c r="G58" s="3">
-        <v>23000</v>
+        <v>35100</v>
       </c>
       <c r="H58" s="3">
-        <v>29800</v>
+        <v>22900</v>
       </c>
       <c r="I58" s="3">
-        <v>63100</v>
+        <v>29600</v>
       </c>
       <c r="J58" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>244300</v>
+        <v>253200</v>
       </c>
       <c r="E59" s="3">
-        <v>206000</v>
+        <v>242800</v>
       </c>
       <c r="F59" s="3">
-        <v>113800</v>
+        <v>204700</v>
       </c>
       <c r="G59" s="3">
-        <v>133900</v>
+        <v>113100</v>
       </c>
       <c r="H59" s="3">
-        <v>187200</v>
+        <v>133100</v>
       </c>
       <c r="I59" s="3">
-        <v>157600</v>
+        <v>186000</v>
       </c>
       <c r="J59" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K59" s="3">
         <v>164700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>372700</v>
+        <v>419400</v>
       </c>
       <c r="E60" s="3">
-        <v>394100</v>
+        <v>370400</v>
       </c>
       <c r="F60" s="3">
-        <v>274800</v>
+        <v>391700</v>
       </c>
       <c r="G60" s="3">
-        <v>222700</v>
+        <v>273200</v>
       </c>
       <c r="H60" s="3">
-        <v>267300</v>
+        <v>221400</v>
       </c>
       <c r="I60" s="3">
-        <v>269100</v>
+        <v>265700</v>
       </c>
       <c r="J60" s="3">
+        <v>267500</v>
+      </c>
+      <c r="K60" s="3">
         <v>232100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>208900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>210900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,41 +3219,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>159600</v>
+        <v>233900</v>
       </c>
       <c r="E61" s="3">
-        <v>168700</v>
+        <v>158600</v>
       </c>
       <c r="F61" s="3">
-        <v>157200</v>
+        <v>167700</v>
       </c>
       <c r="G61" s="3">
-        <v>391800</v>
+        <v>156200</v>
       </c>
       <c r="H61" s="3">
-        <v>199700</v>
+        <v>389400</v>
       </c>
       <c r="I61" s="3">
-        <v>191500</v>
+        <v>198500</v>
       </c>
       <c r="J61" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K61" s="3">
         <v>189400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>177600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>168200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45600</v>
+        <v>35500</v>
       </c>
       <c r="E62" s="3">
-        <v>32400</v>
+        <v>45400</v>
       </c>
       <c r="F62" s="3">
-        <v>35600</v>
+        <v>32200</v>
       </c>
       <c r="G62" s="3">
-        <v>31200</v>
+        <v>35300</v>
       </c>
       <c r="H62" s="3">
-        <v>27100</v>
+        <v>31100</v>
       </c>
       <c r="I62" s="3">
-        <v>20800</v>
+        <v>27000</v>
       </c>
       <c r="J62" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>577800</v>
+        <v>688700</v>
       </c>
       <c r="E66" s="3">
-        <v>595200</v>
+        <v>574300</v>
       </c>
       <c r="F66" s="3">
-        <v>467600</v>
+        <v>591600</v>
       </c>
       <c r="G66" s="3">
-        <v>645800</v>
+        <v>464700</v>
       </c>
       <c r="H66" s="3">
-        <v>494100</v>
+        <v>641900</v>
       </c>
       <c r="I66" s="3">
-        <v>481400</v>
+        <v>491100</v>
       </c>
       <c r="J66" s="3">
+        <v>478500</v>
+      </c>
+      <c r="K66" s="3">
         <v>439500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>393700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>310000</v>
+        <v>1222800</v>
       </c>
       <c r="E72" s="3">
-        <v>1145400</v>
+        <v>308200</v>
       </c>
       <c r="F72" s="3">
-        <v>1089600</v>
+        <v>1138400</v>
       </c>
       <c r="G72" s="3">
-        <v>1079900</v>
+        <v>1082900</v>
       </c>
       <c r="H72" s="3">
-        <v>1051500</v>
+        <v>1073300</v>
       </c>
       <c r="I72" s="3">
-        <v>986000</v>
+        <v>1045100</v>
       </c>
       <c r="J72" s="3">
+        <v>980000</v>
+      </c>
+      <c r="K72" s="3">
         <v>106400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>956100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>104300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1162700</v>
+        <v>1230700</v>
       </c>
       <c r="E76" s="3">
-        <v>1153500</v>
+        <v>1155700</v>
       </c>
       <c r="F76" s="3">
-        <v>1097800</v>
+        <v>1146500</v>
       </c>
       <c r="G76" s="3">
-        <v>1088100</v>
+        <v>1091200</v>
       </c>
       <c r="H76" s="3">
-        <v>1059800</v>
+        <v>1081500</v>
       </c>
       <c r="I76" s="3">
-        <v>994600</v>
+        <v>1053300</v>
       </c>
       <c r="J76" s="3">
+        <v>988500</v>
+      </c>
+      <c r="K76" s="3">
         <v>960700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>990300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
-        <v>50300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-29900</v>
+        <v>50000</v>
       </c>
       <c r="G81" s="3">
-        <v>23400</v>
+        <v>-29700</v>
       </c>
       <c r="H81" s="3">
-        <v>55700</v>
+        <v>23200</v>
       </c>
       <c r="I81" s="3">
-        <v>16200</v>
+        <v>55300</v>
       </c>
       <c r="J81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-197000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,47 +4222,48 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16100</v>
+        <v>18600</v>
       </c>
       <c r="E83" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="F83" s="3">
-        <v>14400</v>
+        <v>15500</v>
       </c>
       <c r="G83" s="3">
-        <v>15500</v>
+        <v>14300</v>
       </c>
       <c r="H83" s="3">
-        <v>12100</v>
+        <v>15400</v>
       </c>
       <c r="I83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J83" s="3">
         <v>10500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E89" s="3">
         <v>4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-79200</v>
-      </c>
       <c r="G89" s="3">
-        <v>-34900</v>
+        <v>-78700</v>
       </c>
       <c r="H89" s="3">
-        <v>-71500</v>
+        <v>-34700</v>
       </c>
       <c r="I89" s="3">
-        <v>-71500</v>
+        <v>-71000</v>
       </c>
       <c r="J89" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,47 +4614,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12800</v>
+        <v>-9100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11000</v>
+        <v>-12700</v>
       </c>
       <c r="F94" s="3">
-        <v>-38100</v>
+        <v>-10900</v>
       </c>
       <c r="G94" s="3">
-        <v>-24900</v>
+        <v>-37800</v>
       </c>
       <c r="H94" s="3">
-        <v>-12400</v>
+        <v>-24800</v>
       </c>
       <c r="I94" s="3">
-        <v>-18500</v>
+        <v>-12300</v>
       </c>
       <c r="J94" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>12700</v>
-      </c>
       <c r="J100" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K100" s="3">
         <v>680300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>678600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>131900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,46 +5110,49 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15900</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-16700</v>
-      </c>
       <c r="G101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-10500</v>
       </c>
-      <c r="H101" s="3">
-        <v>33900</v>
-      </c>
       <c r="I101" s="3">
-        <v>17700</v>
+        <v>33700</v>
       </c>
       <c r="J101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27500</v>
+        <v>106900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11000</v>
+        <v>-27300</v>
       </c>
       <c r="F102" s="3">
-        <v>-138200</v>
+        <v>-10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-73300</v>
+        <v>-137300</v>
       </c>
       <c r="H102" s="3">
-        <v>-48400</v>
+        <v>-72800</v>
       </c>
       <c r="I102" s="3">
-        <v>-59600</v>
+        <v>-48100</v>
       </c>
       <c r="J102" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K102" s="3">
         <v>618900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>624700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>122500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
